--- a/data/accurate_my_wind_speed_and_solar_data.xlsx
+++ b/data/accurate_my_wind_speed_and_solar_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHRISTOPHER\Documents\MATLAB\MicrogridSim\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A93F10-F4F4-48C8-A705-D8F1E71A2E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6030"/>
+    <workbookView xWindow="13620" yWindow="2880" windowWidth="12510" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,14 +39,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -66,16 +74,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{7D0426E6-9FA4-4B78-BEB8-44913E0376AA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -91,9 +116,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -131,9 +156,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -168,7 +193,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -203,7 +228,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -376,11 +401,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D257"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
-      <selection activeCell="A231" sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,13 +684,13 @@
         <v>44958</v>
       </c>
       <c r="B20" s="2">
-        <v>0.91667824074074078</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>12.8</v>
+        <v>0.79175925925925927</v>
+      </c>
+      <c r="C20" s="17">
+        <v>0</v>
+      </c>
+      <c r="D20" s="17">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -673,67 +698,69 @@
         <v>44958</v>
       </c>
       <c r="B21" s="2">
-        <v>0.95834490740740741</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>12.8</v>
+        <v>0.8334259259259259</v>
+      </c>
+      <c r="C21" s="17">
+        <v>0</v>
+      </c>
+      <c r="D21" s="17">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44958</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>12.8</v>
+      <c r="B22" s="2">
+        <v>0.87509259259259264</v>
+      </c>
+      <c r="C22" s="17">
+        <v>0</v>
+      </c>
+      <c r="D22" s="17">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>44959</v>
+        <v>44958</v>
       </c>
       <c r="B23" s="2">
-        <v>4.2164351851851856E-2</v>
+        <v>0.91675925925925927</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>12.74</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>44959</v>
+        <v>44958</v>
       </c>
       <c r="B24" s="2">
-        <v>8.3506944444444453E-2</v>
+        <v>0.9584259259259259</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>12.74</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>44959</v>
+        <v>44958</v>
       </c>
       <c r="B25" s="2">
-        <v>0.12538194444444445</v>
+        <v>9.2592592592592588E-5</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>12.74</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -741,7 +768,7 @@
         <v>44959</v>
       </c>
       <c r="B26" s="2">
-        <v>0.16693287037037038</v>
+        <v>4.2164351851851856E-2</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -755,7 +782,7 @@
         <v>44959</v>
       </c>
       <c r="B27" s="2">
-        <v>0.20901620370370369</v>
+        <v>8.3506944444444453E-2</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -769,13 +796,13 @@
         <v>44959</v>
       </c>
       <c r="B28" s="2">
-        <v>0.25042824074074072</v>
+        <v>0.12538194444444445</v>
       </c>
       <c r="C28">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>0.15</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -783,13 +810,13 @@
         <v>44959</v>
       </c>
       <c r="B29" s="2">
-        <v>0.29221064814814818</v>
+        <v>0.16693287037037038</v>
       </c>
       <c r="C29">
-        <v>12.25</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>0.03</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -797,13 +824,13 @@
         <v>44959</v>
       </c>
       <c r="B30" s="2">
-        <v>0.33349537037037041</v>
+        <v>0.20901620370370369</v>
       </c>
       <c r="C30">
-        <v>178.5</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -811,13 +838,13 @@
         <v>44959</v>
       </c>
       <c r="B31" s="2">
-        <v>0.37549768518518517</v>
+        <v>0.25042824074074072</v>
       </c>
       <c r="C31">
-        <v>304.5</v>
+        <v>14</v>
       </c>
       <c r="D31">
-        <v>0.56000000000000005</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -825,13 +852,13 @@
         <v>44959</v>
       </c>
       <c r="B32" s="2">
-        <v>0.41681712962962963</v>
+        <v>0.29221064814814818</v>
       </c>
       <c r="C32">
-        <v>656.25</v>
+        <v>12.25</v>
       </c>
       <c r="D32">
-        <v>0.18</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -839,10 +866,10 @@
         <v>44959</v>
       </c>
       <c r="B33" s="2">
-        <v>0.45891203703703703</v>
+        <v>0.33349537037037041</v>
       </c>
       <c r="C33">
-        <v>773.5</v>
+        <v>178.5</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -853,13 +880,13 @@
         <v>44959</v>
       </c>
       <c r="B34" s="2">
-        <v>0.50045138888888896</v>
+        <v>0.37549768518518517</v>
       </c>
       <c r="C34">
-        <v>896</v>
+        <v>304.5</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -867,13 +894,13 @@
         <v>44959</v>
       </c>
       <c r="B35" s="2">
-        <v>0.54210648148148144</v>
+        <v>0.41681712962962963</v>
       </c>
       <c r="C35">
-        <v>1078</v>
+        <v>656.25</v>
       </c>
       <c r="D35">
-        <v>0.5</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -881,13 +908,13 @@
         <v>44959</v>
       </c>
       <c r="B36" s="2">
-        <v>0.58346064814814813</v>
+        <v>0.45891203703703703</v>
       </c>
       <c r="C36">
-        <v>666.75</v>
+        <v>773.5</v>
       </c>
       <c r="D36">
-        <v>0.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -895,13 +922,13 @@
         <v>44959</v>
       </c>
       <c r="B37" s="2">
-        <v>0.62550925925925926</v>
+        <v>0.50045138888888896</v>
       </c>
       <c r="C37">
-        <v>722.75</v>
+        <v>896</v>
       </c>
       <c r="D37">
-        <v>1.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -909,13 +936,13 @@
         <v>44959</v>
       </c>
       <c r="B38" s="2">
-        <v>0.66694444444444445</v>
+        <v>0.54210648148148144</v>
       </c>
       <c r="C38">
-        <v>577.5</v>
+        <v>1078</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -923,13 +950,13 @@
         <v>44959</v>
       </c>
       <c r="B39" s="2">
-        <v>0.70896990740740751</v>
+        <v>0.58346064814814813</v>
       </c>
       <c r="C39">
-        <v>208.25</v>
+        <v>666.75</v>
       </c>
       <c r="D39">
-        <v>1.05</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -937,139 +964,139 @@
         <v>44959</v>
       </c>
       <c r="B40" s="2">
-        <v>0.75031250000000005</v>
+        <v>0.62550925925925926</v>
       </c>
       <c r="C40">
-        <v>131.25</v>
+        <v>722.75</v>
       </c>
       <c r="D40">
-        <v>0.56000000000000005</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>44960</v>
+        <v>44959</v>
       </c>
       <c r="B41" s="2">
-        <v>4.2164351851851856E-2</v>
+        <v>0.66694444444444445</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>577.5</v>
       </c>
       <c r="D41">
-        <v>12.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>44960</v>
+        <v>44959</v>
       </c>
       <c r="B42" s="2">
-        <v>8.3506944444444453E-2</v>
+        <v>0.70896990740740751</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>208.25</v>
       </c>
       <c r="D42">
-        <v>12.74</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>44960</v>
+        <v>44959</v>
       </c>
       <c r="B43" s="2">
-        <v>0.12538194444444445</v>
+        <v>0.75031250000000005</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>131.25</v>
       </c>
       <c r="D43">
-        <v>12.74</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>44960</v>
+        <v>44959</v>
       </c>
       <c r="B44" s="2">
-        <v>0.16693287037037038</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>12.74</v>
+        <v>0.79197916666666668</v>
+      </c>
+      <c r="C44" s="16">
+        <v>0</v>
+      </c>
+      <c r="D44" s="16">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>44960</v>
+        <v>44959</v>
       </c>
       <c r="B45" s="2">
-        <v>0.20901620370370369</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>12.74</v>
+        <v>0.83364583333333331</v>
+      </c>
+      <c r="C45" s="16">
+        <v>0</v>
+      </c>
+      <c r="D45" s="16">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>44960</v>
+        <v>44959</v>
       </c>
       <c r="B46" s="2">
-        <v>0.25042824074074072</v>
-      </c>
-      <c r="C46">
-        <v>14</v>
-      </c>
-      <c r="D46">
-        <v>0.15</v>
+        <v>0.87531250000000005</v>
+      </c>
+      <c r="C46" s="16">
+        <v>0</v>
+      </c>
+      <c r="D46" s="16">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>44960</v>
+        <v>44959</v>
       </c>
       <c r="B47" s="2">
-        <v>0.29185185185185186</v>
-      </c>
-      <c r="C47">
-        <v>12.25</v>
-      </c>
-      <c r="D47">
-        <v>0.03</v>
+        <v>0.91697916666666668</v>
+      </c>
+      <c r="C47" s="16">
+        <v>0</v>
+      </c>
+      <c r="D47" s="16">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>44960</v>
+        <v>44959</v>
       </c>
       <c r="B48" s="2">
-        <v>0.33387731481481481</v>
-      </c>
-      <c r="C48">
-        <v>218.75</v>
-      </c>
-      <c r="D48">
-        <v>0.06</v>
+        <v>0.95864583333333331</v>
+      </c>
+      <c r="C48" s="16">
+        <v>0</v>
+      </c>
+      <c r="D48" s="16">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>44960</v>
+        <v>44959</v>
       </c>
       <c r="B49" s="2">
-        <v>0.37517361111111108</v>
-      </c>
-      <c r="C49">
-        <v>448</v>
-      </c>
-      <c r="D49">
-        <v>0.67</v>
+        <v>3.1250000000000001E-4</v>
+      </c>
+      <c r="C49" s="16">
+        <v>0</v>
+      </c>
+      <c r="D49" s="16">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1077,13 +1104,13 @@
         <v>44960</v>
       </c>
       <c r="B50" s="2">
-        <v>0.41725694444444444</v>
+        <v>4.2164351851851856E-2</v>
       </c>
       <c r="C50">
-        <v>448</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>0.56000000000000005</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1091,13 +1118,13 @@
         <v>44960</v>
       </c>
       <c r="B51" s="2">
-        <v>0.4586689814814815</v>
+        <v>8.3506944444444453E-2</v>
       </c>
       <c r="C51">
-        <v>402.5</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>0.67</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1105,13 +1132,13 @@
         <v>44960</v>
       </c>
       <c r="B52" s="2">
-        <v>0.50002314814814819</v>
+        <v>0.12538194444444445</v>
       </c>
       <c r="C52">
-        <v>763</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>0.47</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1119,13 +1146,13 @@
         <v>44960</v>
       </c>
       <c r="B53" s="2">
-        <v>0.54208333333333336</v>
+        <v>0.16693287037037038</v>
       </c>
       <c r="C53">
-        <v>841.75</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>1.93</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1133,13 +1160,13 @@
         <v>44960</v>
       </c>
       <c r="B54" s="2">
-        <v>0.5834259259259259</v>
+        <v>0.20901620370370369</v>
       </c>
       <c r="C54">
-        <v>750.75</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>1.46</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1147,13 +1174,13 @@
         <v>44960</v>
       </c>
       <c r="B55" s="2">
-        <v>0.6253819444444445</v>
+        <v>0.25042824074074072</v>
       </c>
       <c r="C55">
-        <v>642.25</v>
+        <v>14</v>
       </c>
       <c r="D55">
-        <v>3.22</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1161,13 +1188,13 @@
         <v>44960</v>
       </c>
       <c r="B56" s="2">
-        <v>0.66693287037037041</v>
+        <v>0.29185185185185186</v>
       </c>
       <c r="C56">
-        <v>437.5</v>
+        <v>12.25</v>
       </c>
       <c r="D56">
-        <v>1.1100000000000001</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1175,13 +1202,13 @@
         <v>44960</v>
       </c>
       <c r="B57" s="2">
-        <v>0.70837962962962964</v>
+        <v>0.33387731481481481</v>
       </c>
       <c r="C57">
-        <v>238</v>
+        <v>218.75</v>
       </c>
       <c r="D57">
-        <v>0.97</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1189,223 +1216,223 @@
         <v>44960</v>
       </c>
       <c r="B58" s="2">
-        <v>0.75042824074074066</v>
+        <v>0.37517361111111108</v>
       </c>
       <c r="C58">
-        <v>129.5</v>
+        <v>448</v>
       </c>
       <c r="D58">
-        <v>1.85</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>44961</v>
+        <v>44960</v>
       </c>
       <c r="B59" s="2">
-        <v>4.2164351851851856E-2</v>
+        <v>0.41725694444444444</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>448</v>
       </c>
       <c r="D59">
-        <v>12.74</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>44961</v>
+        <v>44960</v>
       </c>
       <c r="B60" s="2">
-        <v>8.3506944444444453E-2</v>
+        <v>0.4586689814814815</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>402.5</v>
       </c>
       <c r="D60">
-        <v>12.74</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>44961</v>
+        <v>44960</v>
       </c>
       <c r="B61" s="2">
-        <v>0.12538194444444445</v>
+        <v>0.50002314814814819</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>763</v>
       </c>
       <c r="D61">
-        <v>12.74</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>44961</v>
+        <v>44960</v>
       </c>
       <c r="B62" s="2">
-        <v>0.16693287037037038</v>
+        <v>0.54208333333333336</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>841.75</v>
       </c>
       <c r="D62">
-        <v>12.74</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>44961</v>
+        <v>44960</v>
       </c>
       <c r="B63" s="2">
-        <v>0.20901620370370369</v>
+        <v>0.5834259259259259</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>750.75</v>
       </c>
       <c r="D63">
-        <v>12.74</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>44961</v>
+        <v>44960</v>
       </c>
       <c r="B64" s="2">
-        <v>0.25042824074074072</v>
+        <v>0.6253819444444445</v>
       </c>
       <c r="C64">
-        <v>14</v>
+        <v>642.25</v>
       </c>
       <c r="D64">
-        <v>0.15</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>44961</v>
+        <v>44960</v>
       </c>
       <c r="B65" s="2">
-        <v>0.29185185185185186</v>
+        <v>0.66693287037037041</v>
       </c>
       <c r="C65">
-        <v>14</v>
+        <v>437.5</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>44961</v>
+        <v>44960</v>
       </c>
       <c r="B66" s="2">
-        <v>0.3339699074074074</v>
+        <v>0.70837962962962964</v>
       </c>
       <c r="C66">
-        <v>208.25</v>
+        <v>238</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>44961</v>
+        <v>44960</v>
       </c>
       <c r="B67" s="2">
-        <v>0.37542824074074077</v>
+        <v>0.75042824074074066</v>
       </c>
       <c r="C67">
-        <v>418.25</v>
+        <v>129.5</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>44961</v>
+        <v>44960</v>
       </c>
       <c r="B68" s="2">
-        <v>0.41736111111111113</v>
-      </c>
-      <c r="C68">
-        <v>603.75</v>
-      </c>
-      <c r="D68">
-        <v>1.64</v>
+        <v>0.7920949074074074</v>
+      </c>
+      <c r="C68" s="15">
+        <v>0</v>
+      </c>
+      <c r="D68" s="15">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>44961</v>
+        <v>44960</v>
       </c>
       <c r="B69" s="2">
-        <v>0.45877314814814812</v>
-      </c>
-      <c r="C69">
-        <v>696.5</v>
-      </c>
-      <c r="D69">
-        <v>0.85</v>
+        <v>0.83376157407407403</v>
+      </c>
+      <c r="C69" s="15">
+        <v>0</v>
+      </c>
+      <c r="D69" s="15">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>44961</v>
+        <v>44960</v>
       </c>
       <c r="B70" s="2">
-        <v>0.50001157407407404</v>
-      </c>
-      <c r="C70">
-        <v>722.75</v>
-      </c>
-      <c r="D70">
-        <v>0.38</v>
+        <v>0.87542824074074077</v>
+      </c>
+      <c r="C70" s="15">
+        <v>0</v>
+      </c>
+      <c r="D70" s="15">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>44961</v>
+        <v>44960</v>
       </c>
       <c r="B71" s="2">
-        <v>0.54216435185185186</v>
-      </c>
-      <c r="C71">
-        <v>868</v>
-      </c>
-      <c r="D71">
-        <v>0.56000000000000005</v>
+        <v>0.9170949074074074</v>
+      </c>
+      <c r="C71" s="15">
+        <v>0</v>
+      </c>
+      <c r="D71" s="15">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>44961</v>
+        <v>44960</v>
       </c>
       <c r="B72" s="2">
-        <v>0.58362268518518523</v>
-      </c>
-      <c r="C72">
-        <v>754.25</v>
-      </c>
-      <c r="D72">
-        <v>1.1399999999999999</v>
+        <v>0.95876157407407403</v>
+      </c>
+      <c r="C72" s="15">
+        <v>0</v>
+      </c>
+      <c r="D72" s="15">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>44961</v>
+        <v>44960</v>
       </c>
       <c r="B73" s="2">
-        <v>0.62561342592592595</v>
-      </c>
-      <c r="C73">
-        <v>609</v>
-      </c>
-      <c r="D73">
-        <v>0.26</v>
+        <v>4.2824074074074075E-4</v>
+      </c>
+      <c r="C73" s="15">
+        <v>0</v>
+      </c>
+      <c r="D73" s="15">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1413,13 +1440,13 @@
         <v>44961</v>
       </c>
       <c r="B74" s="2">
-        <v>0.66723379629629631</v>
+        <v>4.2164351851851856E-2</v>
       </c>
       <c r="C74">
-        <v>512.75</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>1.05</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1427,13 +1454,13 @@
         <v>44961</v>
       </c>
       <c r="B75" s="2">
-        <v>0.7088078703703703</v>
+        <v>8.3506944444444453E-2</v>
       </c>
       <c r="C75">
-        <v>344.75</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>1.17</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1441,21 +1468,21 @@
         <v>44961</v>
       </c>
       <c r="B76" s="2">
-        <v>0.75016203703703699</v>
+        <v>0.12538194444444445</v>
       </c>
       <c r="C76">
-        <v>134.75</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>0.64</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>44962</v>
+        <v>44961</v>
       </c>
       <c r="B77" s="2">
-        <v>4.2164351851851856E-2</v>
+        <v>0.16693287037037038</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -1466,10 +1493,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>44962</v>
+        <v>44961</v>
       </c>
       <c r="B78" s="2">
-        <v>8.3506944444444453E-2</v>
+        <v>0.20901620370370369</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -1480,111 +1507,111 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>44962</v>
+        <v>44961</v>
       </c>
       <c r="B79" s="2">
-        <v>0.12538194444444445</v>
+        <v>0.25042824074074072</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D79">
-        <v>12.74</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>44962</v>
+        <v>44961</v>
       </c>
       <c r="B80" s="2">
-        <v>0.16693287037037038</v>
+        <v>0.29185185185185186</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D80">
-        <v>12.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>44962</v>
+        <v>44961</v>
       </c>
       <c r="B81" s="2">
-        <v>0.20901620370370369</v>
+        <v>0.3339699074074074</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>208.25</v>
       </c>
       <c r="D81">
-        <v>12.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>44962</v>
+        <v>44961</v>
       </c>
       <c r="B82" s="2">
-        <v>0.25042824074074072</v>
+        <v>0.37542824074074077</v>
       </c>
       <c r="C82">
-        <v>14</v>
+        <v>418.25</v>
       </c>
       <c r="D82">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>44962</v>
+        <v>44961</v>
       </c>
       <c r="B83" s="2">
-        <v>0.29236111111111113</v>
+        <v>0.41736111111111113</v>
       </c>
       <c r="C83">
-        <v>12.25</v>
+        <v>603.75</v>
       </c>
       <c r="D83">
-        <v>0.06</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>44962</v>
+        <v>44961</v>
       </c>
       <c r="B84" s="2">
-        <v>0.33374999999999999</v>
+        <v>0.45877314814814812</v>
       </c>
       <c r="C84">
-        <v>204.75</v>
+        <v>696.5</v>
       </c>
       <c r="D84">
-        <v>0.06</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>44962</v>
+        <v>44961</v>
       </c>
       <c r="B85" s="2">
-        <v>0.3752314814814815</v>
+        <v>0.50001157407407404</v>
       </c>
       <c r="C85">
-        <v>434</v>
+        <v>722.75</v>
       </c>
       <c r="D85">
-        <v>0.97</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>44962</v>
+        <v>44961</v>
       </c>
       <c r="B86" s="2">
-        <v>0.41682870370370373</v>
+        <v>0.54216435185185186</v>
       </c>
       <c r="C86">
-        <v>294</v>
+        <v>868</v>
       </c>
       <c r="D86">
         <v>0.56000000000000005</v>
@@ -1592,164 +1619,164 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>44962</v>
+        <v>44961</v>
       </c>
       <c r="B87" s="2">
-        <v>0.45859953703703704</v>
+        <v>0.58362268518518523</v>
       </c>
       <c r="C87">
-        <v>621.25</v>
+        <v>754.25</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>44962</v>
+        <v>44961</v>
       </c>
       <c r="B88" s="2">
-        <v>0.5009837962962963</v>
+        <v>0.62561342592592595</v>
       </c>
       <c r="C88">
-        <v>467.25</v>
+        <v>609</v>
       </c>
       <c r="D88">
-        <v>1.35</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>44962</v>
+        <v>44961</v>
       </c>
       <c r="B89" s="2">
-        <v>0.54180555555555554</v>
+        <v>0.66723379629629631</v>
       </c>
       <c r="C89">
-        <v>836.5</v>
+        <v>512.75</v>
       </c>
       <c r="D89">
-        <v>2.0499999999999998</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>44962</v>
+        <v>44961</v>
       </c>
       <c r="B90" s="2">
-        <v>0.58401620370370366</v>
+        <v>0.7088078703703703</v>
       </c>
       <c r="C90">
-        <v>693</v>
+        <v>344.75</v>
       </c>
       <c r="D90">
-        <v>1.64</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>44962</v>
+        <v>44961</v>
       </c>
       <c r="B91" s="2">
-        <v>0.62543981481481481</v>
+        <v>0.75016203703703699</v>
       </c>
       <c r="C91">
-        <v>360.5</v>
+        <v>134.75</v>
       </c>
       <c r="D91">
-        <v>1.64</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>44962</v>
+        <v>44961</v>
       </c>
       <c r="B92" s="2">
-        <v>0.66684027777777777</v>
-      </c>
-      <c r="C92">
-        <v>507.5</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
+        <v>0.79182870370370373</v>
+      </c>
+      <c r="C92" s="14">
+        <v>0</v>
+      </c>
+      <c r="D92" s="14">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>44962</v>
+        <v>44961</v>
       </c>
       <c r="B93" s="2">
-        <v>0.70888888888888879</v>
-      </c>
-      <c r="C93">
-        <v>288.75</v>
-      </c>
-      <c r="D93">
-        <v>0.56000000000000005</v>
+        <v>0.83349537037037036</v>
+      </c>
+      <c r="C93" s="14">
+        <v>0</v>
+      </c>
+      <c r="D93" s="14">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>44962</v>
+        <v>44961</v>
       </c>
       <c r="B94" s="2">
-        <v>0.75017361111111114</v>
-      </c>
-      <c r="C94">
-        <v>155.75</v>
-      </c>
-      <c r="D94">
-        <v>1.85</v>
+        <v>0.87516203703703699</v>
+      </c>
+      <c r="C94" s="14">
+        <v>0</v>
+      </c>
+      <c r="D94" s="14">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>44963</v>
+        <v>44961</v>
       </c>
       <c r="B95" s="2">
-        <v>4.2164351851851856E-2</v>
-      </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95">
-        <v>12.74</v>
+        <v>0.91682870370370373</v>
+      </c>
+      <c r="C95" s="14">
+        <v>0</v>
+      </c>
+      <c r="D95" s="14">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>44963</v>
+        <v>44961</v>
       </c>
       <c r="B96" s="2">
-        <v>8.3506944444444453E-2</v>
-      </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-      <c r="D96">
-        <v>12.74</v>
+        <v>0.95849537037037036</v>
+      </c>
+      <c r="C96" s="14">
+        <v>0</v>
+      </c>
+      <c r="D96" s="14">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>44963</v>
+        <v>44961</v>
       </c>
       <c r="B97" s="2">
-        <v>0.12538194444444445</v>
-      </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="D97">
-        <v>12.74</v>
+        <v>1.6203703703703703E-4</v>
+      </c>
+      <c r="C97" s="14">
+        <v>0</v>
+      </c>
+      <c r="D97" s="14">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>44963</v>
+        <v>44962</v>
       </c>
       <c r="B98" s="2">
-        <v>0.16693287037037038</v>
+        <v>4.2164351851851856E-2</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -1760,10 +1787,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>44963</v>
+        <v>44962</v>
       </c>
       <c r="B99" s="2">
-        <v>0.20901620370370369</v>
+        <v>8.3506944444444453E-2</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -1774,696 +1801,696 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>44963</v>
+        <v>44962</v>
       </c>
       <c r="B100" s="2">
-        <v>0.25042824074074072</v>
+        <v>0.12538194444444445</v>
       </c>
       <c r="C100">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>0.15</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>44963</v>
+        <v>44962</v>
       </c>
       <c r="B101" s="2">
-        <v>0.29502314814814817</v>
+        <v>0.16693287037037038</v>
       </c>
       <c r="C101">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>0.03</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>44963</v>
+        <v>44962</v>
       </c>
       <c r="B102" s="2">
-        <v>0.33369212962962963</v>
+        <v>0.20901620370370369</v>
       </c>
       <c r="C102">
-        <v>138.25</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>0.09</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>44963</v>
+        <v>44962</v>
       </c>
       <c r="B103" s="2">
-        <v>0.37503472222222217</v>
+        <v>0.25042824074074072</v>
       </c>
       <c r="C103">
-        <v>257.25</v>
+        <v>14</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>44963</v>
+        <v>44962</v>
       </c>
       <c r="B104" s="2">
-        <v>0.41693287037037036</v>
+        <v>0.29236111111111113</v>
       </c>
       <c r="C104">
-        <v>455</v>
+        <v>12.25</v>
       </c>
       <c r="D104">
-        <v>1.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>44963</v>
+        <v>44962</v>
       </c>
       <c r="B105" s="2">
-        <v>0.45837962962962964</v>
+        <v>0.33374999999999999</v>
       </c>
       <c r="C105">
-        <v>623</v>
+        <v>204.75</v>
       </c>
       <c r="D105">
-        <v>0.97</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>44963</v>
+        <v>44962</v>
       </c>
       <c r="B106" s="2">
-        <v>0.50035879629629632</v>
+        <v>0.3752314814814815</v>
       </c>
       <c r="C106">
-        <v>878.5</v>
+        <v>434</v>
       </c>
       <c r="D106">
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>44963</v>
+        <v>44962</v>
       </c>
       <c r="B107" s="2">
-        <v>0.54193287037037041</v>
+        <v>0.41682870370370373</v>
       </c>
       <c r="C107">
-        <v>915.25</v>
+        <v>294</v>
       </c>
       <c r="D107">
-        <v>1.64</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>44963</v>
+        <v>44962</v>
       </c>
       <c r="B108" s="2">
-        <v>0.58334490740740741</v>
+        <v>0.45859953703703704</v>
       </c>
       <c r="C108">
-        <v>738.5</v>
+        <v>621.25</v>
       </c>
       <c r="D108">
-        <v>0.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>44963</v>
+        <v>44962</v>
       </c>
       <c r="B109" s="2">
-        <v>0.625462962962963</v>
+        <v>0.5009837962962963</v>
       </c>
       <c r="C109">
-        <v>414.75</v>
+        <v>467.25</v>
       </c>
       <c r="D109">
-        <v>0.76</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>44963</v>
+        <v>44962</v>
       </c>
       <c r="B110" s="2">
-        <v>0.66681712962962969</v>
+        <v>0.54180555555555554</v>
       </c>
       <c r="C110">
-        <v>231</v>
+        <v>836.5</v>
       </c>
       <c r="D110">
-        <v>1.46</v>
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>44963</v>
+        <v>44962</v>
       </c>
       <c r="B111" s="2">
-        <v>0.70873842592592595</v>
+        <v>0.58401620370370366</v>
       </c>
       <c r="C111">
-        <v>222.25</v>
+        <v>693</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>44963</v>
+        <v>44962</v>
       </c>
       <c r="B112" s="2">
-        <v>0.75001157407407415</v>
+        <v>0.62543981481481481</v>
       </c>
       <c r="C112">
-        <v>99.75</v>
+        <v>360.5</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>44964</v>
+        <v>44962</v>
       </c>
       <c r="B113" s="2">
-        <v>4.2164351851851856E-2</v>
+        <v>0.66684027777777777</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>507.5</v>
       </c>
       <c r="D113">
-        <v>12.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>44964</v>
+        <v>44962</v>
       </c>
       <c r="B114" s="2">
-        <v>8.3506944444444453E-2</v>
+        <v>0.70888888888888879</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>288.75</v>
       </c>
       <c r="D114">
-        <v>12.74</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>44964</v>
+        <v>44962</v>
       </c>
       <c r="B115" s="2">
-        <v>0.12538194444444445</v>
+        <v>0.75017361111111114</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>155.75</v>
       </c>
       <c r="D115">
-        <v>12.74</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>44964</v>
+        <v>44962</v>
       </c>
       <c r="B116" s="2">
-        <v>0.16693287037037038</v>
-      </c>
-      <c r="C116">
-        <v>0</v>
-      </c>
-      <c r="D116">
-        <v>12.74</v>
+        <v>0.79184027777777777</v>
+      </c>
+      <c r="C116" s="13">
+        <v>0</v>
+      </c>
+      <c r="D116" s="13">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>44964</v>
+        <v>44962</v>
       </c>
       <c r="B117" s="2">
-        <v>0.20901620370370369</v>
-      </c>
-      <c r="C117">
-        <v>0</v>
-      </c>
-      <c r="D117">
-        <v>12.74</v>
+        <v>0.8335069444444444</v>
+      </c>
+      <c r="C117" s="13">
+        <v>0</v>
+      </c>
+      <c r="D117" s="13">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>44964</v>
+        <v>44962</v>
       </c>
       <c r="B118" s="2">
-        <v>0.25042824074074072</v>
-      </c>
-      <c r="C118">
-        <v>12.25</v>
-      </c>
-      <c r="D118">
-        <v>0.03</v>
+        <v>0.87517361111111114</v>
+      </c>
+      <c r="C118" s="13">
+        <v>0</v>
+      </c>
+      <c r="D118" s="13">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>44964</v>
+        <v>44962</v>
       </c>
       <c r="B119" s="2">
-        <v>0.29225694444444444</v>
-      </c>
-      <c r="C119">
-        <v>19.25</v>
-      </c>
-      <c r="D119">
-        <v>0</v>
+        <v>0.91684027777777777</v>
+      </c>
+      <c r="C119" s="13">
+        <v>0</v>
+      </c>
+      <c r="D119" s="13">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>44964</v>
+        <v>44962</v>
       </c>
       <c r="B120" s="2">
-        <v>0.33356481481481487</v>
-      </c>
-      <c r="C120">
-        <v>274.75</v>
-      </c>
-      <c r="D120">
-        <v>0.38</v>
+        <v>0.9585069444444444</v>
+      </c>
+      <c r="C120" s="13">
+        <v>0</v>
+      </c>
+      <c r="D120" s="13">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>44964</v>
+        <v>44962</v>
       </c>
       <c r="B121" s="2">
-        <v>0.37563657407407408</v>
-      </c>
-      <c r="C121">
-        <v>495.25</v>
-      </c>
-      <c r="D121">
-        <v>0.76</v>
+        <v>1.7361111111111112E-4</v>
+      </c>
+      <c r="C121" s="13">
+        <v>0</v>
+      </c>
+      <c r="D121" s="13">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>44964</v>
+        <v>44963</v>
       </c>
       <c r="B122" s="2">
-        <v>0.41712962962962963</v>
+        <v>4.2164351851851856E-2</v>
       </c>
       <c r="C122">
-        <v>735</v>
+        <v>0</v>
       </c>
       <c r="D122">
-        <v>0.56000000000000005</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>44964</v>
+        <v>44963</v>
       </c>
       <c r="B123" s="2">
-        <v>0.45877314814814812</v>
+        <v>8.3506944444444453E-2</v>
       </c>
       <c r="C123">
-        <v>708.75</v>
+        <v>0</v>
       </c>
       <c r="D123">
-        <v>1.64</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>44964</v>
+        <v>44963</v>
       </c>
       <c r="B124" s="2">
-        <v>0.50027777777777771</v>
+        <v>0.12538194444444445</v>
       </c>
       <c r="C124">
-        <v>1051.75</v>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>1.96</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>44964</v>
+        <v>44963</v>
       </c>
       <c r="B125" s="2">
-        <v>0.54217592592592589</v>
+        <v>0.16693287037037038</v>
       </c>
       <c r="C125">
-        <v>976.5</v>
+        <v>0</v>
       </c>
       <c r="D125">
-        <v>0.09</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>44964</v>
+        <v>44963</v>
       </c>
       <c r="B126" s="2">
-        <v>0.58387731481481475</v>
+        <v>0.20901620370370369</v>
       </c>
       <c r="C126">
-        <v>857.5</v>
+        <v>0</v>
       </c>
       <c r="D126">
-        <v>0.85</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>44964</v>
+        <v>44963</v>
       </c>
       <c r="B127" s="2">
-        <v>0.62563657407407403</v>
+        <v>0.25042824074074072</v>
       </c>
       <c r="C127">
-        <v>420</v>
+        <v>14</v>
       </c>
       <c r="D127">
-        <v>1.35</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>44964</v>
+        <v>44963</v>
       </c>
       <c r="B128" s="2">
-        <v>0.66700231481481476</v>
+        <v>0.29502314814814817</v>
       </c>
       <c r="C128">
-        <v>404.25</v>
+        <v>14</v>
       </c>
       <c r="D128">
-        <v>2.0499999999999998</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>44964</v>
+        <v>44963</v>
       </c>
       <c r="B129" s="2">
-        <v>0.70840277777777771</v>
+        <v>0.33369212962962963</v>
       </c>
       <c r="C129">
-        <v>257.25</v>
+        <v>138.25</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>44964</v>
+        <v>44963</v>
       </c>
       <c r="B130" s="2">
-        <v>0.75033564814814813</v>
+        <v>0.37503472222222217</v>
       </c>
       <c r="C130">
-        <v>98</v>
+        <v>257.25</v>
       </c>
       <c r="D130">
-        <v>0.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>44965</v>
+        <v>44963</v>
       </c>
       <c r="B131" s="2">
-        <v>4.221064814814815E-2</v>
+        <v>0.41693287037037036</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="D131">
-        <v>12.74</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>44965</v>
+        <v>44963</v>
       </c>
       <c r="B132" s="2">
-        <v>8.3506944444444453E-2</v>
+        <v>0.45837962962962964</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>623</v>
       </c>
       <c r="D132">
-        <v>12.74</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>44965</v>
+        <v>44963</v>
       </c>
       <c r="B133" s="2">
-        <v>0.12538194444444445</v>
+        <v>0.50035879629629632</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>878.5</v>
       </c>
       <c r="D133">
-        <v>12.74</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>44965</v>
+        <v>44963</v>
       </c>
       <c r="B134" s="2">
-        <v>0.16693287037037038</v>
+        <v>0.54193287037037041</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>915.25</v>
       </c>
       <c r="D134">
-        <v>12.74</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>44965</v>
+        <v>44963</v>
       </c>
       <c r="B135" s="2">
-        <v>0.20901620370370369</v>
+        <v>0.58334490740740741</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>738.5</v>
       </c>
       <c r="D135">
-        <v>12.74</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>44965</v>
+        <v>44963</v>
       </c>
       <c r="B136" s="2">
-        <v>0.25042824074074072</v>
+        <v>0.625462962962963</v>
       </c>
       <c r="C136">
-        <v>14</v>
+        <v>414.75</v>
       </c>
       <c r="D136">
-        <v>0.15</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>44965</v>
+        <v>44963</v>
       </c>
       <c r="B137" s="2">
-        <v>0.2920949074074074</v>
+        <v>0.66681712962962969</v>
       </c>
       <c r="C137">
-        <v>14</v>
+        <v>231</v>
       </c>
       <c r="D137">
-        <v>0.18</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>44965</v>
+        <v>44963</v>
       </c>
       <c r="B138" s="2">
-        <v>0.33336805555555554</v>
+        <v>0.70873842592592595</v>
       </c>
       <c r="C138">
-        <v>227.5</v>
+        <v>222.25</v>
       </c>
       <c r="D138">
-        <v>0.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>44965</v>
+        <v>44963</v>
       </c>
       <c r="B139" s="2">
-        <v>0.37540509259259264</v>
+        <v>0.75001157407407415</v>
       </c>
       <c r="C139">
-        <v>474.25</v>
+        <v>99.75</v>
       </c>
       <c r="D139">
-        <v>0.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>44965</v>
+        <v>44963</v>
       </c>
       <c r="B140" s="2">
-        <v>0.41681712962962963</v>
-      </c>
-      <c r="C140">
-        <v>694.75</v>
-      </c>
-      <c r="D140">
-        <v>0.18</v>
+        <v>0.79167824074074078</v>
+      </c>
+      <c r="C140" s="12">
+        <v>0</v>
+      </c>
+      <c r="D140" s="12">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>44965</v>
+        <v>44963</v>
       </c>
       <c r="B141" s="2">
-        <v>0.4584375</v>
-      </c>
-      <c r="C141">
-        <v>778.75</v>
-      </c>
-      <c r="D141">
-        <v>0.56000000000000005</v>
+        <v>0.83334490740740741</v>
+      </c>
+      <c r="C141" s="12">
+        <v>0</v>
+      </c>
+      <c r="D141" s="12">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>44965</v>
+        <v>44963</v>
       </c>
       <c r="B142" s="2">
-        <v>0.5005208333333333</v>
-      </c>
-      <c r="C142">
-        <v>819</v>
-      </c>
-      <c r="D142">
-        <v>0.56000000000000005</v>
+        <v>0.87501157407407404</v>
+      </c>
+      <c r="C142" s="12">
+        <v>0</v>
+      </c>
+      <c r="D142" s="12">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>44965</v>
+        <v>44963</v>
       </c>
       <c r="B143" s="2">
-        <v>0.54171296296296301</v>
-      </c>
-      <c r="C143">
-        <v>882</v>
-      </c>
-      <c r="D143">
-        <v>0.26</v>
+        <v>0.91667824074074078</v>
+      </c>
+      <c r="C143" s="12">
+        <v>0</v>
+      </c>
+      <c r="D143" s="12">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>44965</v>
+        <v>44963</v>
       </c>
       <c r="B144" s="2">
-        <v>0.58385416666666667</v>
-      </c>
-      <c r="C144">
-        <v>467.25</v>
-      </c>
-      <c r="D144">
-        <v>0.67</v>
+        <v>0.95834490740740741</v>
+      </c>
+      <c r="C144" s="12">
+        <v>0</v>
+      </c>
+      <c r="D144" s="12">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>44965</v>
+        <v>44963</v>
       </c>
       <c r="B145" s="2">
-        <v>0.62511574074074072</v>
-      </c>
-      <c r="C145">
-        <v>696.5</v>
-      </c>
-      <c r="D145">
-        <v>0.56000000000000005</v>
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="C145" s="12">
+        <v>0</v>
+      </c>
+      <c r="D145" s="12">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>44965</v>
+        <v>44964</v>
       </c>
       <c r="B146" s="2">
-        <v>0.66712962962962974</v>
+        <v>4.2164351851851856E-2</v>
       </c>
       <c r="C146">
-        <v>623</v>
+        <v>0</v>
       </c>
       <c r="D146">
-        <v>1.26</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>44965</v>
+        <v>44964</v>
       </c>
       <c r="B147" s="2">
-        <v>0.70844907407407398</v>
+        <v>8.3506944444444453E-2</v>
       </c>
       <c r="C147">
-        <v>273</v>
+        <v>0</v>
       </c>
       <c r="D147">
-        <v>1.64</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>44965</v>
+        <v>44964</v>
       </c>
       <c r="B148" s="2">
-        <v>0.75040509259259258</v>
+        <v>0.12538194444444445</v>
       </c>
       <c r="C148">
-        <v>108.5</v>
+        <v>0</v>
       </c>
       <c r="D148">
-        <v>0.28999999999999998</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>44966</v>
+        <v>44964</v>
       </c>
       <c r="B149" s="2">
-        <v>4.221064814814815E-2</v>
+        <v>0.16693287037037038</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -2474,10 +2501,10 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>44966</v>
+        <v>44964</v>
       </c>
       <c r="B150" s="2">
-        <v>8.3506944444444453E-2</v>
+        <v>0.20901620370370369</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -2488,290 +2515,290 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>44966</v>
+        <v>44964</v>
       </c>
       <c r="B151" s="2">
-        <v>0.1252662037037037</v>
+        <v>0.25042824074074072</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="D151">
-        <v>12.71</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>44966</v>
+        <v>44964</v>
       </c>
       <c r="B152" s="2">
-        <v>0.16700231481481484</v>
+        <v>0.29225694444444444</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>19.25</v>
       </c>
       <c r="D152">
-        <v>12.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>44966</v>
+        <v>44964</v>
       </c>
       <c r="B153" s="2">
-        <v>0.20901620370370369</v>
+        <v>0.33356481481481487</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>274.75</v>
       </c>
       <c r="D153">
-        <v>12.74</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>44966</v>
+        <v>44964</v>
       </c>
       <c r="B154" s="2">
-        <v>0.25042824074074072</v>
+        <v>0.37563657407407408</v>
       </c>
       <c r="C154">
-        <v>14</v>
+        <v>495.25</v>
       </c>
       <c r="D154">
-        <v>0.15</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>44966</v>
+        <v>44964</v>
       </c>
       <c r="B155" s="2">
-        <v>0.29225694444444444</v>
+        <v>0.41712962962962963</v>
       </c>
       <c r="C155">
-        <v>10.5</v>
+        <v>735</v>
       </c>
       <c r="D155">
-        <v>0.03</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>44966</v>
+        <v>44964</v>
       </c>
       <c r="B156" s="2">
-        <v>0.33351851851851855</v>
+        <v>0.45877314814814812</v>
       </c>
       <c r="C156">
-        <v>71.75</v>
+        <v>708.75</v>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>44966</v>
+        <v>44964</v>
       </c>
       <c r="B157" s="2">
-        <v>0.37559027777777776</v>
+        <v>0.50027777777777771</v>
       </c>
       <c r="C157">
-        <v>315</v>
+        <v>1051.75</v>
       </c>
       <c r="D157">
-        <v>0.38</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>44966</v>
+        <v>44964</v>
       </c>
       <c r="B158" s="2">
-        <v>0.4168634259259259</v>
+        <v>0.54217592592592589</v>
       </c>
       <c r="C158">
-        <v>754.25</v>
+        <v>976.5</v>
       </c>
       <c r="D158">
-        <v>0.85</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>44966</v>
+        <v>44964</v>
       </c>
       <c r="B159" s="2">
-        <v>0.45890046296296294</v>
+        <v>0.58387731481481475</v>
       </c>
       <c r="C159">
-        <v>789.25</v>
+        <v>857.5</v>
       </c>
       <c r="D159">
-        <v>0.18</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>44966</v>
+        <v>44964</v>
       </c>
       <c r="B160" s="2">
-        <v>0.50024305555555559</v>
+        <v>0.62563657407407403</v>
       </c>
       <c r="C160">
-        <v>855.75</v>
+        <v>420</v>
       </c>
       <c r="D160">
-        <v>0.47</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>44966</v>
+        <v>44964</v>
       </c>
       <c r="B161" s="2">
-        <v>0.54178240740740746</v>
+        <v>0.66700231481481476</v>
       </c>
       <c r="C161">
-        <v>838.25</v>
+        <v>404.25</v>
       </c>
       <c r="D161">
-        <v>0.38</v>
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>44966</v>
+        <v>44964</v>
       </c>
       <c r="B162" s="2">
-        <v>0.58339120370370368</v>
+        <v>0.70840277777777771</v>
       </c>
       <c r="C162">
-        <v>784</v>
+        <v>257.25</v>
       </c>
       <c r="D162">
-        <v>0.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>44966</v>
+        <v>44964</v>
       </c>
       <c r="B163" s="2">
-        <v>0.62539351851851854</v>
+        <v>0.75033564814814813</v>
       </c>
       <c r="C163">
-        <v>659.75</v>
+        <v>98</v>
       </c>
       <c r="D163">
-        <v>1.17</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>44966</v>
+        <v>44964</v>
       </c>
       <c r="B164" s="2">
-        <v>0.66689814814814818</v>
-      </c>
-      <c r="C164">
-        <v>579.25</v>
-      </c>
-      <c r="D164">
-        <v>0.18</v>
+        <v>0.79200231481481487</v>
+      </c>
+      <c r="C164" s="11">
+        <v>0</v>
+      </c>
+      <c r="D164" s="11">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>44966</v>
+        <v>44964</v>
       </c>
       <c r="B165" s="2">
-        <v>0.70834490740740741</v>
-      </c>
-      <c r="C165">
-        <v>246.75</v>
-      </c>
-      <c r="D165">
-        <v>0</v>
+        <v>0.8336689814814815</v>
+      </c>
+      <c r="C165" s="11">
+        <v>0</v>
+      </c>
+      <c r="D165" s="11">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>44966</v>
+        <v>44964</v>
       </c>
       <c r="B166" s="2">
-        <v>0.75045138888888896</v>
-      </c>
-      <c r="C166">
-        <v>141.75</v>
-      </c>
-      <c r="D166">
-        <v>0.47</v>
+        <v>0.87533564814814813</v>
+      </c>
+      <c r="C166" s="11">
+        <v>0</v>
+      </c>
+      <c r="D166" s="11">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>44967</v>
+        <v>44964</v>
       </c>
       <c r="B167" s="2">
-        <v>4.221064814814815E-2</v>
-      </c>
-      <c r="C167">
-        <v>0</v>
-      </c>
-      <c r="D167">
-        <v>12.74</v>
+        <v>0.91700231481481487</v>
+      </c>
+      <c r="C167" s="11">
+        <v>0</v>
+      </c>
+      <c r="D167" s="11">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>44967</v>
+        <v>44964</v>
       </c>
       <c r="B168" s="2">
-        <v>8.3506944444444453E-2</v>
-      </c>
-      <c r="C168">
-        <v>0</v>
-      </c>
-      <c r="D168">
-        <v>12.74</v>
+        <v>0.9586689814814815</v>
+      </c>
+      <c r="C168" s="11">
+        <v>0</v>
+      </c>
+      <c r="D168" s="11">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>44967</v>
+        <v>44964</v>
       </c>
       <c r="B169" s="2">
-        <v>0.1252662037037037</v>
-      </c>
-      <c r="C169">
-        <v>0</v>
-      </c>
-      <c r="D169">
-        <v>12.71</v>
+        <v>3.3564814814814812E-4</v>
+      </c>
+      <c r="C169" s="11">
+        <v>0</v>
+      </c>
+      <c r="D169" s="11">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>44967</v>
+        <v>44965</v>
       </c>
       <c r="B170" s="2">
-        <v>0.16700231481481484</v>
+        <v>4.221064814814815E-2</v>
       </c>
       <c r="C170">
         <v>0</v>
       </c>
       <c r="D170">
-        <v>12.71</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>44967</v>
+        <v>44965</v>
       </c>
       <c r="B171" s="2">
-        <v>0.20901620370370369</v>
+        <v>8.3506944444444453E-2</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -2782,545 +2809,545 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>44967</v>
+        <v>44965</v>
       </c>
       <c r="B172" s="2">
-        <v>0.25042824074074072</v>
+        <v>0.12538194444444445</v>
       </c>
       <c r="C172">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D172">
-        <v>0.15</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>44967</v>
+        <v>44965</v>
       </c>
       <c r="B173" s="2">
-        <v>0.29178240740740741</v>
+        <v>0.16693287037037038</v>
       </c>
       <c r="C173">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>44967</v>
+        <v>44965</v>
       </c>
       <c r="B174" s="2">
-        <v>0.3336574074074074</v>
+        <v>0.20901620370370369</v>
       </c>
       <c r="C174">
-        <v>152.25</v>
+        <v>0</v>
       </c>
       <c r="D174">
-        <v>0</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>44967</v>
+        <v>44965</v>
       </c>
       <c r="B175" s="2">
-        <v>0.37563657407407408</v>
+        <v>0.25042824074074072</v>
       </c>
       <c r="C175">
-        <v>374.5</v>
+        <v>14</v>
       </c>
       <c r="D175">
-        <v>0.26</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>44967</v>
+        <v>44965</v>
       </c>
       <c r="B176" s="2">
-        <v>0.41692129629629626</v>
+        <v>0.2920949074074074</v>
       </c>
       <c r="C176">
-        <v>346.5</v>
+        <v>14</v>
       </c>
       <c r="D176">
-        <v>0.47</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>44967</v>
+        <v>44965</v>
       </c>
       <c r="B177" s="2">
-        <v>0.45848379629629626</v>
+        <v>0.33336805555555554</v>
       </c>
       <c r="C177">
-        <v>700</v>
+        <v>227.5</v>
       </c>
       <c r="D177">
-        <v>0.59</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>44967</v>
+        <v>44965</v>
       </c>
       <c r="B178" s="2">
-        <v>0.50061342592592595</v>
+        <v>0.37540509259259264</v>
       </c>
       <c r="C178">
-        <v>854</v>
+        <v>474.25</v>
       </c>
       <c r="D178">
-        <v>0.56000000000000005</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>44967</v>
+        <v>44965</v>
       </c>
       <c r="B179" s="2">
-        <v>0.54186342592592596</v>
+        <v>0.41681712962962963</v>
       </c>
       <c r="C179">
-        <v>808.5</v>
+        <v>694.75</v>
       </c>
       <c r="D179">
-        <v>1.29</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>44967</v>
+        <v>44965</v>
       </c>
       <c r="B180" s="2">
-        <v>0.58394675925925921</v>
+        <v>0.4584375</v>
       </c>
       <c r="C180">
-        <v>812</v>
+        <v>778.75</v>
       </c>
       <c r="D180">
-        <v>0</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>44967</v>
+        <v>44965</v>
       </c>
       <c r="B181" s="2">
-        <v>0.6253009259259259</v>
+        <v>0.5005208333333333</v>
       </c>
       <c r="C181">
-        <v>665</v>
+        <v>819</v>
       </c>
       <c r="D181">
-        <v>0.47</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>44967</v>
+        <v>44965</v>
       </c>
       <c r="B182" s="2">
-        <v>0.66733796296296299</v>
+        <v>0.54171296296296301</v>
       </c>
       <c r="C182">
-        <v>582.75</v>
+        <v>882</v>
       </c>
       <c r="D182">
-        <v>0.97</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>44967</v>
+        <v>44965</v>
       </c>
       <c r="B183" s="2">
-        <v>0.70870370370370372</v>
+        <v>0.58385416666666667</v>
       </c>
       <c r="C183">
-        <v>246.75</v>
+        <v>467.25</v>
       </c>
       <c r="D183">
-        <v>0.79</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>44967</v>
+        <v>44965</v>
       </c>
       <c r="B184" s="2">
-        <v>0.75065972222222221</v>
+        <v>0.62511574074074072</v>
       </c>
       <c r="C184">
-        <v>136.5</v>
+        <v>696.5</v>
       </c>
       <c r="D184">
-        <v>1.46</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>44968</v>
+        <v>44965</v>
       </c>
       <c r="B185" s="2">
-        <v>4.221064814814815E-2</v>
+        <v>0.66712962962962974</v>
       </c>
       <c r="C185">
-        <v>0</v>
+        <v>623</v>
       </c>
       <c r="D185">
-        <v>12.74</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>44968</v>
+        <v>44965</v>
       </c>
       <c r="B186" s="2">
-        <v>8.3506944444444453E-2</v>
+        <v>0.70844907407407398</v>
       </c>
       <c r="C186">
-        <v>0</v>
+        <v>273</v>
       </c>
       <c r="D186">
-        <v>12.74</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>44968</v>
+        <v>44965</v>
       </c>
       <c r="B187" s="2">
-        <v>0.1252662037037037</v>
+        <v>0.75040509259259258</v>
       </c>
       <c r="C187">
-        <v>0</v>
+        <v>108.5</v>
       </c>
       <c r="D187">
-        <v>12.71</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>44968</v>
+        <v>44965</v>
       </c>
       <c r="B188" s="2">
-        <v>0.16700231481481484</v>
-      </c>
-      <c r="C188">
-        <v>0</v>
-      </c>
-      <c r="D188">
-        <v>12.71</v>
+        <v>0.79207175925925921</v>
+      </c>
+      <c r="C188" s="10">
+        <v>0</v>
+      </c>
+      <c r="D188" s="10">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>44968</v>
+        <v>44965</v>
       </c>
       <c r="B189" s="2">
-        <v>0.20901620370370369</v>
-      </c>
-      <c r="C189">
-        <v>0</v>
-      </c>
-      <c r="D189">
-        <v>12.74</v>
+        <v>0.83373842592592595</v>
+      </c>
+      <c r="C189" s="10">
+        <v>0</v>
+      </c>
+      <c r="D189" s="10">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>44968</v>
+        <v>44965</v>
       </c>
       <c r="B190" s="2">
-        <v>0.25042824074074072</v>
-      </c>
-      <c r="C190">
-        <v>14</v>
-      </c>
-      <c r="D190">
-        <v>0.15</v>
+        <v>0.87540509259259258</v>
+      </c>
+      <c r="C190" s="10">
+        <v>0</v>
+      </c>
+      <c r="D190" s="10">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>44968</v>
+        <v>44965</v>
       </c>
       <c r="B191" s="2">
-        <v>0.29233796296296294</v>
-      </c>
-      <c r="C191">
-        <v>14</v>
-      </c>
-      <c r="D191">
-        <v>0.03</v>
+        <v>0.91707175925925921</v>
+      </c>
+      <c r="C191" s="10">
+        <v>0</v>
+      </c>
+      <c r="D191" s="10">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>44968</v>
+        <v>44965</v>
       </c>
       <c r="B192" s="2">
-        <v>0.33371527777777782</v>
-      </c>
-      <c r="C192">
-        <v>229.25</v>
-      </c>
-      <c r="D192">
-        <v>0.56000000000000005</v>
+        <v>0.95873842592592595</v>
+      </c>
+      <c r="C192" s="10">
+        <v>0</v>
+      </c>
+      <c r="D192" s="10">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>44968</v>
+        <v>44965</v>
       </c>
       <c r="B193" s="2">
-        <v>0.37504629629629632</v>
-      </c>
-      <c r="C193">
-        <v>505.75</v>
-      </c>
-      <c r="D193">
-        <v>0.7</v>
+        <v>4.0509259259259258E-4</v>
+      </c>
+      <c r="C193" s="10">
+        <v>0</v>
+      </c>
+      <c r="D193" s="10">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>44968</v>
+        <v>44966</v>
       </c>
       <c r="B194" s="2">
-        <v>0.41706018518518517</v>
+        <v>4.221064814814815E-2</v>
       </c>
       <c r="C194">
-        <v>729.75</v>
+        <v>0</v>
       </c>
       <c r="D194">
-        <v>0.47</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>44968</v>
+        <v>44966</v>
       </c>
       <c r="B195" s="2">
-        <v>0.45837962962962964</v>
+        <v>8.3506944444444453E-2</v>
       </c>
       <c r="C195">
-        <v>717.5</v>
+        <v>0</v>
       </c>
       <c r="D195">
-        <v>0.5</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>44968</v>
+        <v>44966</v>
       </c>
       <c r="B196" s="2">
-        <v>0.50033564814814813</v>
+        <v>0.1252662037037037</v>
       </c>
       <c r="C196">
-        <v>987</v>
+        <v>0</v>
       </c>
       <c r="D196">
-        <v>1.17</v>
+        <v>12.71</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>44968</v>
+        <v>44966</v>
       </c>
       <c r="B197" s="2">
-        <v>0.54166666666666663</v>
+        <v>0.16700231481481484</v>
       </c>
       <c r="C197">
-        <v>815.5</v>
+        <v>0</v>
       </c>
       <c r="D197">
-        <v>1.76</v>
+        <v>12.71</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>44968</v>
+        <v>44966</v>
       </c>
       <c r="B198" s="2">
-        <v>0.58374999999999999</v>
+        <v>0.20901620370370369</v>
       </c>
       <c r="C198">
-        <v>782.25</v>
+        <v>0</v>
       </c>
       <c r="D198">
-        <v>0.76</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>44968</v>
+        <v>44966</v>
       </c>
       <c r="B199" s="2">
-        <v>0.62512731481481476</v>
+        <v>0.25042824074074072</v>
       </c>
       <c r="C199">
-        <v>323.75</v>
+        <v>14</v>
       </c>
       <c r="D199">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>44968</v>
+        <v>44966</v>
       </c>
       <c r="B200" s="2">
-        <v>0.66721064814814823</v>
+        <v>0.29225694444444444</v>
       </c>
       <c r="C200">
-        <v>563.5</v>
+        <v>10.5</v>
       </c>
       <c r="D200">
-        <v>0.56000000000000005</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>44968</v>
+        <v>44966</v>
       </c>
       <c r="B201" s="2">
-        <v>0.70856481481481481</v>
+        <v>0.33351851851851855</v>
       </c>
       <c r="C201">
-        <v>253.75</v>
+        <v>71.75</v>
       </c>
       <c r="D201">
-        <v>1.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>44968</v>
+        <v>44966</v>
       </c>
       <c r="B202" s="2">
-        <v>0.75059027777777787</v>
+        <v>0.37559027777777776</v>
       </c>
       <c r="C202">
-        <v>138.25</v>
+        <v>315</v>
       </c>
       <c r="D202">
-        <v>0.85</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>44969</v>
+        <v>44966</v>
       </c>
       <c r="B203" s="2">
-        <v>4.221064814814815E-2</v>
+        <v>0.4168634259259259</v>
       </c>
       <c r="C203">
-        <v>0</v>
+        <v>754.25</v>
       </c>
       <c r="D203">
-        <v>12.74</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>44969</v>
+        <v>44966</v>
       </c>
       <c r="B204" s="2">
-        <v>8.3506944444444453E-2</v>
+        <v>0.45890046296296294</v>
       </c>
       <c r="C204">
-        <v>0</v>
+        <v>789.25</v>
       </c>
       <c r="D204">
-        <v>12.74</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>44969</v>
+        <v>44966</v>
       </c>
       <c r="B205" s="2">
-        <v>0.1252662037037037</v>
+        <v>0.50024305555555559</v>
       </c>
       <c r="C205">
-        <v>0</v>
+        <v>855.75</v>
       </c>
       <c r="D205">
-        <v>12.71</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>44969</v>
+        <v>44966</v>
       </c>
       <c r="B206" s="2">
-        <v>0.16700231481481484</v>
+        <v>0.54178240740740746</v>
       </c>
       <c r="C206">
-        <v>0</v>
+        <v>838.25</v>
       </c>
       <c r="D206">
-        <v>12.71</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>44969</v>
+        <v>44966</v>
       </c>
       <c r="B207" s="2">
-        <v>0.20901620370370369</v>
+        <v>0.58339120370370368</v>
       </c>
       <c r="C207">
-        <v>0</v>
+        <v>784</v>
       </c>
       <c r="D207">
-        <v>12.74</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>44969</v>
+        <v>44966</v>
       </c>
       <c r="B208" s="2">
-        <v>0.25042824074074072</v>
+        <v>0.62539351851851854</v>
       </c>
       <c r="C208">
-        <v>14</v>
+        <v>659.75</v>
       </c>
       <c r="D208">
-        <v>0.15</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>44969</v>
+        <v>44966</v>
       </c>
       <c r="B209" s="2">
-        <v>0.29194444444444445</v>
+        <v>0.66689814814814818</v>
       </c>
       <c r="C209">
-        <v>15.75</v>
+        <v>579.25</v>
       </c>
       <c r="D209">
-        <v>0.03</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>44969</v>
+        <v>44966</v>
       </c>
       <c r="B210" s="2">
-        <v>0.33390046296296294</v>
+        <v>0.70834490740740741</v>
       </c>
       <c r="C210">
-        <v>208.25</v>
+        <v>246.75</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -3328,164 +3355,164 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>44969</v>
+        <v>44966</v>
       </c>
       <c r="B211" s="2">
-        <v>0.37525462962962958</v>
+        <v>0.75045138888888896</v>
       </c>
       <c r="C211">
-        <v>434</v>
+        <v>141.75</v>
       </c>
       <c r="D211">
-        <v>1.55</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>44969</v>
+        <v>44966</v>
       </c>
       <c r="B212" s="2">
-        <v>0.41722222222222222</v>
-      </c>
-      <c r="C212">
-        <v>649.25</v>
-      </c>
-      <c r="D212">
-        <v>2.72</v>
+        <v>0.79211805555555559</v>
+      </c>
+      <c r="C212" s="9">
+        <v>0</v>
+      </c>
+      <c r="D212" s="9">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>44969</v>
+        <v>44966</v>
       </c>
       <c r="B213" s="2">
-        <v>0.45846064814814813</v>
-      </c>
-      <c r="C213">
-        <v>684.25</v>
-      </c>
-      <c r="D213">
-        <v>0.47</v>
+        <v>0.83378472222222222</v>
+      </c>
+      <c r="C213" s="9">
+        <v>0</v>
+      </c>
+      <c r="D213" s="9">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>44969</v>
+        <v>44966</v>
       </c>
       <c r="B214" s="2">
-        <v>0.50042824074074077</v>
-      </c>
-      <c r="C214">
-        <v>1065.75</v>
-      </c>
-      <c r="D214">
-        <v>1.87</v>
+        <v>0.87545138888888885</v>
+      </c>
+      <c r="C214" s="9">
+        <v>0</v>
+      </c>
+      <c r="D214" s="9">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>44969</v>
+        <v>44966</v>
       </c>
       <c r="B215" s="2">
-        <v>0.54173611111111108</v>
-      </c>
-      <c r="C215">
-        <v>822.5</v>
-      </c>
-      <c r="D215">
-        <v>1.17</v>
+        <v>0.91711805555555559</v>
+      </c>
+      <c r="C215" s="9">
+        <v>0</v>
+      </c>
+      <c r="D215" s="9">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>44969</v>
+        <v>44966</v>
       </c>
       <c r="B216" s="2">
-        <v>0.58377314814814818</v>
-      </c>
-      <c r="C216">
-        <v>759.5</v>
-      </c>
-      <c r="D216">
-        <v>0.47</v>
+        <v>0.95878472222222222</v>
+      </c>
+      <c r="C216" s="9">
+        <v>0</v>
+      </c>
+      <c r="D216" s="9">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>44969</v>
+        <v>44966</v>
       </c>
       <c r="B217" s="2">
-        <v>0.62512731481481476</v>
-      </c>
-      <c r="C217">
-        <v>633.5</v>
-      </c>
-      <c r="D217">
-        <v>0.76</v>
+        <v>4.5138888888888887E-4</v>
+      </c>
+      <c r="C217" s="9">
+        <v>0</v>
+      </c>
+      <c r="D217" s="9">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>44969</v>
+        <v>44967</v>
       </c>
       <c r="B218" s="2">
-        <v>0.6670949074074074</v>
+        <v>4.221064814814815E-2</v>
       </c>
       <c r="C218">
-        <v>551.25</v>
+        <v>0</v>
       </c>
       <c r="D218">
-        <v>1.85</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>44969</v>
+        <v>44967</v>
       </c>
       <c r="B219" s="2">
-        <v>0.70833333333333337</v>
+        <v>8.3506944444444453E-2</v>
       </c>
       <c r="C219">
-        <v>232.75</v>
+        <v>0</v>
       </c>
       <c r="D219">
-        <v>0.38</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>44969</v>
+        <v>44967</v>
       </c>
       <c r="B220" s="2">
-        <v>0.75038194444444439</v>
+        <v>0.1252662037037037</v>
       </c>
       <c r="C220">
-        <v>134.75</v>
+        <v>0</v>
       </c>
       <c r="D220">
-        <v>0.56000000000000005</v>
+        <v>12.71</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>44970</v>
+        <v>44967</v>
       </c>
       <c r="B221" s="2">
-        <v>4.221064814814815E-2</v>
+        <v>0.16700231481481484</v>
       </c>
       <c r="C221">
         <v>0</v>
       </c>
       <c r="D221">
-        <v>12.74</v>
+        <v>12.71</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>44970</v>
+        <v>44967</v>
       </c>
       <c r="B222" s="2">
-        <v>8.3506944444444453E-2</v>
+        <v>0.20901620370370369</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -3496,492 +3523,1612 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>44970</v>
+        <v>44967</v>
       </c>
       <c r="B223" s="2">
-        <v>0.1252662037037037</v>
+        <v>0.25042824074074072</v>
       </c>
       <c r="C223">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D223">
-        <v>12.71</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>44970</v>
+        <v>44967</v>
       </c>
       <c r="B224" s="2">
-        <v>0.16700231481481484</v>
+        <v>0.29178240740740741</v>
       </c>
       <c r="C224">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D224">
-        <v>12.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>44970</v>
+        <v>44967</v>
       </c>
       <c r="B225" s="2">
-        <v>0.20901620370370369</v>
+        <v>0.3336574074074074</v>
       </c>
       <c r="C225">
-        <v>0</v>
+        <v>152.25</v>
       </c>
       <c r="D225">
-        <v>12.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>44970</v>
+        <v>44967</v>
       </c>
       <c r="B226" s="2">
-        <v>0.25042824074074072</v>
+        <v>0.37563657407407408</v>
       </c>
       <c r="C226">
-        <v>14</v>
+        <v>374.5</v>
       </c>
       <c r="D226">
-        <v>0.15</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>44970</v>
+        <v>44967</v>
       </c>
       <c r="B227" s="2">
-        <v>0.29224537037037041</v>
+        <v>0.41692129629629626</v>
       </c>
       <c r="C227">
-        <v>12.25</v>
+        <v>346.5</v>
       </c>
       <c r="D227">
-        <v>0</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>44970</v>
+        <v>44967</v>
       </c>
       <c r="B228" s="2">
-        <v>0.33355324074074072</v>
+        <v>0.45848379629629626</v>
       </c>
       <c r="C228">
-        <v>217</v>
+        <v>700</v>
       </c>
       <c r="D228">
-        <v>0.56000000000000005</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>44970</v>
+        <v>44967</v>
       </c>
       <c r="B229" s="2">
-        <v>0.37560185185185185</v>
+        <v>0.50061342592592595</v>
       </c>
       <c r="C229">
-        <v>432.25</v>
+        <v>854</v>
       </c>
       <c r="D229">
-        <v>1.76</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>44970</v>
+        <v>44967</v>
       </c>
       <c r="B230" s="2">
-        <v>0.41679398148148145</v>
+        <v>0.54186342592592596</v>
       </c>
       <c r="C230">
-        <v>652.75</v>
+        <v>808.5</v>
       </c>
       <c r="D230">
-        <v>0.56000000000000005</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>44970</v>
+        <v>44967</v>
       </c>
       <c r="B231" s="2">
-        <v>0.45884259259259258</v>
+        <v>0.58394675925925921</v>
       </c>
       <c r="C231">
-        <v>689.5</v>
+        <v>812</v>
       </c>
       <c r="D231">
-        <v>0.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>44970</v>
+        <v>44967</v>
       </c>
       <c r="B232" s="2">
-        <v>0.50012731481481476</v>
+        <v>0.6253009259259259</v>
       </c>
       <c r="C232">
-        <v>850.5</v>
+        <v>665</v>
       </c>
       <c r="D232">
-        <v>0.76</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>44970</v>
+        <v>44967</v>
       </c>
       <c r="B233" s="2">
-        <v>0.54210648148148144</v>
+        <v>0.66733796296296299</v>
       </c>
       <c r="C233">
-        <v>855.75</v>
+        <v>582.75</v>
       </c>
       <c r="D233">
-        <v>3.13</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>44970</v>
+        <v>44967</v>
       </c>
       <c r="B234" s="2">
-        <v>0.58334490740740741</v>
+        <v>0.70870370370370372</v>
       </c>
       <c r="C234">
-        <v>770</v>
+        <v>246.75</v>
       </c>
       <c r="D234">
-        <v>0.47</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>44970</v>
+        <v>44967</v>
       </c>
       <c r="B235" s="2">
-        <v>0.62534722222222217</v>
+        <v>0.75065972222222221</v>
       </c>
       <c r="C235">
-        <v>645.75</v>
+        <v>136.5</v>
       </c>
       <c r="D235">
-        <v>0.56000000000000005</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>44970</v>
+        <v>44967</v>
       </c>
       <c r="B236" s="2">
-        <v>0.66674768518518512</v>
-      </c>
-      <c r="C236">
-        <v>525</v>
-      </c>
-      <c r="D236">
-        <v>0.85</v>
+        <v>0.79232638888888884</v>
+      </c>
+      <c r="C236" s="8">
+        <v>0</v>
+      </c>
+      <c r="D236" s="8">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>44970</v>
+        <v>44967</v>
       </c>
       <c r="B237" s="2">
-        <v>0.70865740740740746</v>
-      </c>
-      <c r="C237">
-        <v>271.25</v>
-      </c>
-      <c r="D237">
-        <v>0.38</v>
+        <v>0.83399305555555558</v>
+      </c>
+      <c r="C237" s="8">
+        <v>0</v>
+      </c>
+      <c r="D237" s="8">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>44970</v>
+        <v>44967</v>
       </c>
       <c r="B238" s="2">
-        <v>0.75067129629629636</v>
-      </c>
-      <c r="C238">
-        <v>131.25</v>
-      </c>
-      <c r="D238">
-        <v>0</v>
+        <v>0.87565972222222221</v>
+      </c>
+      <c r="C238" s="8">
+        <v>0</v>
+      </c>
+      <c r="D238" s="8">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>44970</v>
+        <v>44967</v>
       </c>
       <c r="B239" s="2">
-        <v>0.98439814814814808</v>
-      </c>
-      <c r="C239">
-        <v>0</v>
-      </c>
-      <c r="D239">
-        <v>12.8</v>
+        <v>0.91732638888888884</v>
+      </c>
+      <c r="C239" s="8">
+        <v>0</v>
+      </c>
+      <c r="D239" s="8">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>44971</v>
+        <v>44967</v>
       </c>
       <c r="B240" s="2">
-        <v>4.221064814814815E-2</v>
-      </c>
-      <c r="C240">
-        <v>0</v>
-      </c>
-      <c r="D240">
-        <v>12.74</v>
+        <v>0.95899305555555558</v>
+      </c>
+      <c r="C240" s="8">
+        <v>0</v>
+      </c>
+      <c r="D240" s="8">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>44971</v>
+        <v>44967</v>
       </c>
       <c r="B241" s="2">
-        <v>8.3506944444444453E-2</v>
-      </c>
-      <c r="C241">
-        <v>0</v>
-      </c>
-      <c r="D241">
-        <v>12.74</v>
+        <v>6.5972222222222224E-4</v>
+      </c>
+      <c r="C241" s="8">
+        <v>0</v>
+      </c>
+      <c r="D241" s="8">
+        <v>4.1455859374999999</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>44971</v>
+        <v>44968</v>
       </c>
       <c r="B242" s="2">
-        <v>0.1252662037037037</v>
+        <v>4.221064814814815E-2</v>
       </c>
       <c r="C242">
         <v>0</v>
       </c>
       <c r="D242">
-        <v>12.71</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>44971</v>
+        <v>44968</v>
       </c>
       <c r="B243" s="2">
-        <v>0.16700231481481484</v>
+        <v>8.3506944444444453E-2</v>
       </c>
       <c r="C243">
         <v>0</v>
       </c>
       <c r="D243">
-        <v>12.71</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>44971</v>
+        <v>44968</v>
       </c>
       <c r="B244" s="2">
-        <v>0.20901620370370369</v>
+        <v>0.1252662037037037</v>
       </c>
       <c r="C244">
         <v>0</v>
       </c>
       <c r="D244">
-        <v>12.74</v>
+        <v>12.71</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>44971</v>
+        <v>44968</v>
       </c>
       <c r="B245" s="2">
-        <v>0.25042824074074072</v>
+        <v>0.16700231481481484</v>
       </c>
       <c r="C245">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D245">
-        <v>0.15</v>
+        <v>12.71</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>44971</v>
+        <v>44968</v>
       </c>
       <c r="B246" s="2">
-        <v>0.29237268518518517</v>
+        <v>0.20901620370370369</v>
       </c>
       <c r="C246">
-        <v>12.25</v>
+        <v>0</v>
       </c>
       <c r="D246">
-        <v>0.12</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>44971</v>
+        <v>44968</v>
       </c>
       <c r="B247" s="2">
-        <v>0.3336574074074074</v>
+        <v>0.25042824074074072</v>
       </c>
       <c r="C247">
-        <v>206.5</v>
+        <v>14</v>
       </c>
       <c r="D247">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>44971</v>
+        <v>44968</v>
       </c>
       <c r="B248" s="2">
-        <v>0.37506944444444446</v>
+        <v>0.29233796296296294</v>
       </c>
       <c r="C248">
-        <v>434</v>
+        <v>14</v>
       </c>
       <c r="D248">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>44971</v>
+        <v>44968</v>
       </c>
       <c r="B249" s="2">
-        <v>0.41687500000000005</v>
+        <v>0.33371527777777782</v>
       </c>
       <c r="C249">
-        <v>598.5</v>
+        <v>229.25</v>
       </c>
       <c r="D249">
-        <v>0.76</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>44971</v>
+        <v>44968</v>
       </c>
       <c r="B250" s="2">
-        <v>0.45894675925925926</v>
+        <v>0.37504629629629632</v>
       </c>
       <c r="C250">
-        <v>673.75</v>
+        <v>505.75</v>
       </c>
       <c r="D250">
-        <v>0.06</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>44971</v>
+        <v>44968</v>
       </c>
       <c r="B251" s="2">
-        <v>0.50033564814814813</v>
+        <v>0.41706018518518517</v>
       </c>
       <c r="C251">
-        <v>845.25</v>
+        <v>729.75</v>
       </c>
       <c r="D251">
-        <v>2.4300000000000002</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>44971</v>
+        <v>44968</v>
       </c>
       <c r="B252" s="2">
-        <v>0.54173611111111108</v>
+        <v>0.45837962962962964</v>
       </c>
       <c r="C252">
-        <v>794.5</v>
+        <v>717.5</v>
       </c>
       <c r="D252">
-        <v>0.56000000000000005</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>44971</v>
+        <v>44968</v>
       </c>
       <c r="B253" s="2">
-        <v>0.58385416666666667</v>
+        <v>0.50033564814814813</v>
       </c>
       <c r="C253">
-        <v>784</v>
+        <v>987</v>
       </c>
       <c r="D253">
-        <v>0.26</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>44971</v>
+        <v>44968</v>
       </c>
       <c r="B254" s="2">
-        <v>0.62517361111111114</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="C254">
-        <v>619.5</v>
+        <v>815.5</v>
       </c>
       <c r="D254">
-        <v>0.64</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>44971</v>
+        <v>44968</v>
       </c>
       <c r="B255" s="2">
-        <v>0.66714120370370367</v>
+        <v>0.58374999999999999</v>
       </c>
       <c r="C255">
-        <v>472.5</v>
+        <v>782.25</v>
       </c>
       <c r="D255">
-        <v>0.85</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>44971</v>
+        <v>44968</v>
       </c>
       <c r="B256" s="2">
-        <v>0.70844907407407398</v>
+        <v>0.62512731481481476</v>
       </c>
       <c r="C256">
-        <v>278.25</v>
+        <v>323.75</v>
       </c>
       <c r="D256">
-        <v>0.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
+        <v>44968</v>
+      </c>
+      <c r="B257" s="2">
+        <v>0.66721064814814823</v>
+      </c>
+      <c r="C257">
+        <v>563.5</v>
+      </c>
+      <c r="D257">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>44968</v>
+      </c>
+      <c r="B258" s="2">
+        <v>0.70856481481481481</v>
+      </c>
+      <c r="C258">
+        <v>253.75</v>
+      </c>
+      <c r="D258">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>44968</v>
+      </c>
+      <c r="B259" s="2">
+        <v>0.75059027777777787</v>
+      </c>
+      <c r="C259">
+        <v>138.25</v>
+      </c>
+      <c r="D259">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>44968</v>
+      </c>
+      <c r="B260" s="2">
+        <v>0.7922569444444445</v>
+      </c>
+      <c r="C260" s="7">
+        <v>0</v>
+      </c>
+      <c r="D260" s="7">
+        <v>4.1455859374999999</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>44968</v>
+      </c>
+      <c r="B261" s="2">
+        <v>0.83392361111111113</v>
+      </c>
+      <c r="C261" s="7">
+        <v>0</v>
+      </c>
+      <c r="D261" s="7">
+        <v>4.1455859374999999</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>44968</v>
+      </c>
+      <c r="B262" s="2">
+        <v>0.87559027777777776</v>
+      </c>
+      <c r="C262" s="7">
+        <v>0</v>
+      </c>
+      <c r="D262" s="7">
+        <v>4.1455859374999999</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>44968</v>
+      </c>
+      <c r="B263" s="2">
+        <v>0.9172569444444445</v>
+      </c>
+      <c r="C263" s="7">
+        <v>0</v>
+      </c>
+      <c r="D263" s="7">
+        <v>4.1455859374999999</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>44968</v>
+      </c>
+      <c r="B264" s="2">
+        <v>0.95892361111111113</v>
+      </c>
+      <c r="C264" s="7">
+        <v>0</v>
+      </c>
+      <c r="D264" s="7">
+        <v>4.1455859374999999</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>44968</v>
+      </c>
+      <c r="B265" s="2">
+        <v>5.9027777777777778E-4</v>
+      </c>
+      <c r="C265" s="7">
+        <v>0</v>
+      </c>
+      <c r="D265" s="7">
+        <v>4.1455859374999999</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>44969</v>
+      </c>
+      <c r="B266" s="2">
+        <v>4.221064814814815E-2</v>
+      </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+      <c r="D266">
+        <v>12.74</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>44969</v>
+      </c>
+      <c r="B267" s="2">
+        <v>8.3506944444444453E-2</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+      <c r="D267">
+        <v>12.74</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>44969</v>
+      </c>
+      <c r="B268" s="2">
+        <v>0.1252662037037037</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+      <c r="D268">
+        <v>12.71</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>44969</v>
+      </c>
+      <c r="B269" s="2">
+        <v>0.16700231481481484</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+      <c r="D269">
+        <v>12.71</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>44969</v>
+      </c>
+      <c r="B270" s="2">
+        <v>0.20901620370370369</v>
+      </c>
+      <c r="C270">
+        <v>0</v>
+      </c>
+      <c r="D270">
+        <v>12.74</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>44969</v>
+      </c>
+      <c r="B271" s="2">
+        <v>0.25042824074074072</v>
+      </c>
+      <c r="C271">
+        <v>14</v>
+      </c>
+      <c r="D271">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>44969</v>
+      </c>
+      <c r="B272" s="2">
+        <v>0.29194444444444445</v>
+      </c>
+      <c r="C272">
+        <v>15.75</v>
+      </c>
+      <c r="D272">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>44969</v>
+      </c>
+      <c r="B273" s="2">
+        <v>0.33390046296296294</v>
+      </c>
+      <c r="C273">
+        <v>208.25</v>
+      </c>
+      <c r="D273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>44969</v>
+      </c>
+      <c r="B274" s="2">
+        <v>0.37525462962962958</v>
+      </c>
+      <c r="C274">
+        <v>434</v>
+      </c>
+      <c r="D274">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>44969</v>
+      </c>
+      <c r="B275" s="2">
+        <v>0.41722222222222222</v>
+      </c>
+      <c r="C275">
+        <v>649.25</v>
+      </c>
+      <c r="D275">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>44969</v>
+      </c>
+      <c r="B276" s="2">
+        <v>0.45846064814814813</v>
+      </c>
+      <c r="C276">
+        <v>684.25</v>
+      </c>
+      <c r="D276">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>44969</v>
+      </c>
+      <c r="B277" s="2">
+        <v>0.50042824074074077</v>
+      </c>
+      <c r="C277">
+        <v>1065.75</v>
+      </c>
+      <c r="D277">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>44969</v>
+      </c>
+      <c r="B278" s="2">
+        <v>0.54173611111111108</v>
+      </c>
+      <c r="C278">
+        <v>822.5</v>
+      </c>
+      <c r="D278">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>44969</v>
+      </c>
+      <c r="B279" s="2">
+        <v>0.58377314814814818</v>
+      </c>
+      <c r="C279">
+        <v>759.5</v>
+      </c>
+      <c r="D279">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>44969</v>
+      </c>
+      <c r="B280" s="2">
+        <v>0.62512731481481476</v>
+      </c>
+      <c r="C280">
+        <v>633.5</v>
+      </c>
+      <c r="D280">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>44969</v>
+      </c>
+      <c r="B281" s="2">
+        <v>0.6670949074074074</v>
+      </c>
+      <c r="C281">
+        <v>551.25</v>
+      </c>
+      <c r="D281">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>44969</v>
+      </c>
+      <c r="B282" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C282">
+        <v>232.75</v>
+      </c>
+      <c r="D282">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>44969</v>
+      </c>
+      <c r="B283" s="2">
+        <v>0.75038194444444439</v>
+      </c>
+      <c r="C283">
+        <v>134.75</v>
+      </c>
+      <c r="D283">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>44969</v>
+      </c>
+      <c r="B284" s="2">
+        <v>0.79204861111111113</v>
+      </c>
+      <c r="C284" s="6">
+        <v>0</v>
+      </c>
+      <c r="D284" s="6">
+        <v>4.1455859374999999</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>44969</v>
+      </c>
+      <c r="B285" s="2">
+        <v>0.83371527777777776</v>
+      </c>
+      <c r="C285" s="6">
+        <v>0</v>
+      </c>
+      <c r="D285" s="6">
+        <v>4.1455859374999999</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>44969</v>
+      </c>
+      <c r="B286" s="2">
+        <v>0.87538194444444439</v>
+      </c>
+      <c r="C286" s="6">
+        <v>0</v>
+      </c>
+      <c r="D286" s="6">
+        <v>4.1455859374999999</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>44969</v>
+      </c>
+      <c r="B287" s="2">
+        <v>0.91704861111111113</v>
+      </c>
+      <c r="C287" s="6">
+        <v>0</v>
+      </c>
+      <c r="D287" s="6">
+        <v>4.1455859374999999</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>44969</v>
+      </c>
+      <c r="B288" s="2">
+        <v>0.95871527777777776</v>
+      </c>
+      <c r="C288" s="6">
+        <v>0</v>
+      </c>
+      <c r="D288" s="6">
+        <v>4.1455859374999999</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>44969</v>
+      </c>
+      <c r="B289" s="2">
+        <v>3.8194444444444446E-4</v>
+      </c>
+      <c r="C289" s="6">
+        <v>0</v>
+      </c>
+      <c r="D289" s="6">
+        <v>4.1455859374999999</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>44970</v>
+      </c>
+      <c r="B290" s="2">
+        <v>4.221064814814815E-2</v>
+      </c>
+      <c r="C290">
+        <v>0</v>
+      </c>
+      <c r="D290">
+        <v>12.74</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>44970</v>
+      </c>
+      <c r="B291" s="2">
+        <v>8.3506944444444453E-2</v>
+      </c>
+      <c r="C291">
+        <v>0</v>
+      </c>
+      <c r="D291">
+        <v>12.74</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>44970</v>
+      </c>
+      <c r="B292" s="2">
+        <v>0.1252662037037037</v>
+      </c>
+      <c r="C292">
+        <v>0</v>
+      </c>
+      <c r="D292">
+        <v>12.71</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>44970</v>
+      </c>
+      <c r="B293" s="2">
+        <v>0.16700231481481484</v>
+      </c>
+      <c r="C293">
+        <v>0</v>
+      </c>
+      <c r="D293">
+        <v>12.71</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>44970</v>
+      </c>
+      <c r="B294" s="2">
+        <v>0.20901620370370369</v>
+      </c>
+      <c r="C294">
+        <v>0</v>
+      </c>
+      <c r="D294">
+        <v>12.74</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>44970</v>
+      </c>
+      <c r="B295" s="2">
+        <v>0.25042824074074072</v>
+      </c>
+      <c r="C295">
+        <v>14</v>
+      </c>
+      <c r="D295">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>44970</v>
+      </c>
+      <c r="B296" s="2">
+        <v>0.29224537037037041</v>
+      </c>
+      <c r="C296">
+        <v>12.25</v>
+      </c>
+      <c r="D296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>44970</v>
+      </c>
+      <c r="B297" s="2">
+        <v>0.33355324074074072</v>
+      </c>
+      <c r="C297">
+        <v>217</v>
+      </c>
+      <c r="D297">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>44970</v>
+      </c>
+      <c r="B298" s="2">
+        <v>0.37560185185185185</v>
+      </c>
+      <c r="C298">
+        <v>432.25</v>
+      </c>
+      <c r="D298">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>44970</v>
+      </c>
+      <c r="B299" s="2">
+        <v>0.41679398148148145</v>
+      </c>
+      <c r="C299">
+        <v>652.75</v>
+      </c>
+      <c r="D299">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>44970</v>
+      </c>
+      <c r="B300" s="2">
+        <v>0.45884259259259258</v>
+      </c>
+      <c r="C300">
+        <v>689.5</v>
+      </c>
+      <c r="D300">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>44970</v>
+      </c>
+      <c r="B301" s="2">
+        <v>0.50012731481481476</v>
+      </c>
+      <c r="C301">
+        <v>850.5</v>
+      </c>
+      <c r="D301">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>44970</v>
+      </c>
+      <c r="B302" s="2">
+        <v>0.54210648148148144</v>
+      </c>
+      <c r="C302">
+        <v>855.75</v>
+      </c>
+      <c r="D302">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>44970</v>
+      </c>
+      <c r="B303" s="2">
+        <v>0.58334490740740741</v>
+      </c>
+      <c r="C303">
+        <v>770</v>
+      </c>
+      <c r="D303">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>44970</v>
+      </c>
+      <c r="B304" s="2">
+        <v>0.62534722222222217</v>
+      </c>
+      <c r="C304">
+        <v>645.75</v>
+      </c>
+      <c r="D304">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>44970</v>
+      </c>
+      <c r="B305" s="2">
+        <v>0.66674768518518512</v>
+      </c>
+      <c r="C305">
+        <v>525</v>
+      </c>
+      <c r="D305">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>44970</v>
+      </c>
+      <c r="B306" s="2">
+        <v>0.70865740740740746</v>
+      </c>
+      <c r="C306">
+        <v>271.25</v>
+      </c>
+      <c r="D306">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
+        <v>44970</v>
+      </c>
+      <c r="B307" s="2">
+        <v>0.75067129629629636</v>
+      </c>
+      <c r="C307">
+        <v>131.25</v>
+      </c>
+      <c r="D307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>44970</v>
+      </c>
+      <c r="B308" s="2">
+        <v>0.79233796296296299</v>
+      </c>
+      <c r="C308" s="4">
+        <v>0</v>
+      </c>
+      <c r="D308" s="4">
+        <v>4.1455859374999999</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
+        <v>44970</v>
+      </c>
+      <c r="B309" s="2">
+        <v>0.83400462962962962</v>
+      </c>
+      <c r="C309" s="4">
+        <v>0</v>
+      </c>
+      <c r="D309" s="4">
+        <v>4.1455859374999999</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
+        <v>44970</v>
+      </c>
+      <c r="B310" s="2">
+        <v>0.87567129629629625</v>
+      </c>
+      <c r="C310" s="4">
+        <v>0</v>
+      </c>
+      <c r="D310" s="4">
+        <v>4.1455859374999999</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" s="1">
+        <v>44970</v>
+      </c>
+      <c r="B311" s="2">
+        <v>0.91733796296296299</v>
+      </c>
+      <c r="C311" s="4">
+        <v>0</v>
+      </c>
+      <c r="D311" s="4">
+        <v>4.1455859374999999</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
+        <v>44970</v>
+      </c>
+      <c r="B312" s="2">
+        <v>0.95900462962962962</v>
+      </c>
+      <c r="C312">
+        <v>0</v>
+      </c>
+      <c r="D312">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" s="1">
+        <v>44970</v>
+      </c>
+      <c r="B313" s="2">
+        <v>6.7129629629629625E-4</v>
+      </c>
+      <c r="C313" s="5">
+        <v>0</v>
+      </c>
+      <c r="D313" s="5">
+        <v>4.1455859374999999</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
         <v>44971</v>
       </c>
-      <c r="B257" s="2">
+      <c r="B314" s="2">
+        <v>4.221064814814815E-2</v>
+      </c>
+      <c r="C314">
+        <v>0</v>
+      </c>
+      <c r="D314">
+        <v>12.74</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" s="1">
+        <v>44971</v>
+      </c>
+      <c r="B315" s="2">
+        <v>8.3506944444444453E-2</v>
+      </c>
+      <c r="C315">
+        <v>0</v>
+      </c>
+      <c r="D315">
+        <v>12.74</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" s="1">
+        <v>44971</v>
+      </c>
+      <c r="B316" s="2">
+        <v>0.1252662037037037</v>
+      </c>
+      <c r="C316">
+        <v>0</v>
+      </c>
+      <c r="D316">
+        <v>12.71</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" s="1">
+        <v>44971</v>
+      </c>
+      <c r="B317" s="2">
+        <v>0.16700231481481484</v>
+      </c>
+      <c r="C317">
+        <v>0</v>
+      </c>
+      <c r="D317">
+        <v>12.71</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" s="1">
+        <v>44971</v>
+      </c>
+      <c r="B318" s="2">
+        <v>0.20901620370370369</v>
+      </c>
+      <c r="C318">
+        <v>0</v>
+      </c>
+      <c r="D318">
+        <v>12.74</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" s="1">
+        <v>44971</v>
+      </c>
+      <c r="B319" s="2">
+        <v>0.25042824074074072</v>
+      </c>
+      <c r="C319">
+        <v>14</v>
+      </c>
+      <c r="D319">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" s="1">
+        <v>44971</v>
+      </c>
+      <c r="B320" s="2">
+        <v>0.29237268518518517</v>
+      </c>
+      <c r="C320">
+        <v>12.25</v>
+      </c>
+      <c r="D320">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" s="1">
+        <v>44971</v>
+      </c>
+      <c r="B321" s="2">
+        <v>0.3336574074074074</v>
+      </c>
+      <c r="C321">
+        <v>206.5</v>
+      </c>
+      <c r="D321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" s="1">
+        <v>44971</v>
+      </c>
+      <c r="B322" s="2">
+        <v>0.37506944444444446</v>
+      </c>
+      <c r="C322">
+        <v>434</v>
+      </c>
+      <c r="D322">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" s="1">
+        <v>44971</v>
+      </c>
+      <c r="B323" s="2">
+        <v>0.41687500000000005</v>
+      </c>
+      <c r="C323">
+        <v>598.5</v>
+      </c>
+      <c r="D323">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" s="1">
+        <v>44971</v>
+      </c>
+      <c r="B324" s="2">
+        <v>0.45894675925925926</v>
+      </c>
+      <c r="C324">
+        <v>673.75</v>
+      </c>
+      <c r="D324">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" s="1">
+        <v>44971</v>
+      </c>
+      <c r="B325" s="2">
+        <v>0.50033564814814813</v>
+      </c>
+      <c r="C325">
+        <v>845.25</v>
+      </c>
+      <c r="D325">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" s="1">
+        <v>44971</v>
+      </c>
+      <c r="B326" s="2">
+        <v>0.54173611111111108</v>
+      </c>
+      <c r="C326">
+        <v>794.5</v>
+      </c>
+      <c r="D326">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" s="1">
+        <v>44971</v>
+      </c>
+      <c r="B327" s="2">
+        <v>0.58385416666666667</v>
+      </c>
+      <c r="C327">
+        <v>784</v>
+      </c>
+      <c r="D327">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
+        <v>44971</v>
+      </c>
+      <c r="B328" s="2">
+        <v>0.62517361111111114</v>
+      </c>
+      <c r="C328">
+        <v>619.5</v>
+      </c>
+      <c r="D328">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" s="1">
+        <v>44971</v>
+      </c>
+      <c r="B329" s="2">
+        <v>0.66714120370370367</v>
+      </c>
+      <c r="C329">
+        <v>472.5</v>
+      </c>
+      <c r="D329">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" s="1">
+        <v>44971</v>
+      </c>
+      <c r="B330" s="2">
+        <v>0.70844907407407398</v>
+      </c>
+      <c r="C330">
+        <v>278.25</v>
+      </c>
+      <c r="D330">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" s="1">
+        <v>44971</v>
+      </c>
+      <c r="B331" s="2">
         <v>0.75055555555555553</v>
       </c>
-      <c r="C257">
+      <c r="C331">
         <v>136.5</v>
       </c>
-      <c r="D257">
-        <v>0</v>
+      <c r="D331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" s="1">
+        <v>44971</v>
+      </c>
+      <c r="B332" s="2">
+        <v>0.79222222222222227</v>
+      </c>
+      <c r="C332" s="3">
+        <v>0</v>
+      </c>
+      <c r="D332" s="3">
+        <v>4.1455859374999999</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" s="1">
+        <v>44971</v>
+      </c>
+      <c r="B333" s="2">
+        <v>0.8338888888888889</v>
+      </c>
+      <c r="C333" s="3">
+        <v>0</v>
+      </c>
+      <c r="D333" s="3">
+        <v>4.1455859374999999</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" s="1">
+        <v>44971</v>
+      </c>
+      <c r="B334" s="2">
+        <v>0.87555555555555553</v>
+      </c>
+      <c r="C334" s="3">
+        <v>0</v>
+      </c>
+      <c r="D334" s="3">
+        <v>4.1455859374999999</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" s="1">
+        <v>44971</v>
+      </c>
+      <c r="B335" s="2">
+        <v>0.91722222222222227</v>
+      </c>
+      <c r="C335" s="3">
+        <v>0</v>
+      </c>
+      <c r="D335" s="3">
+        <v>4.1455859374999999</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" s="1">
+        <v>44971</v>
+      </c>
+      <c r="B336" s="2">
+        <v>0.9588888888888889</v>
+      </c>
+      <c r="C336" s="3">
+        <v>0</v>
+      </c>
+      <c r="D336" s="3">
+        <v>4.1455859374999999</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" s="1">
+        <v>44971</v>
+      </c>
+      <c r="B337" s="2">
+        <v>5.5555555555555556E-4</v>
+      </c>
+      <c r="C337" s="3">
+        <v>0</v>
+      </c>
+      <c r="D337" s="3">
+        <v>4.1455859374999999</v>
       </c>
     </row>
   </sheetData>
@@ -3991,7 +5138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4003,7 +5150,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/data/accurate_my_wind_speed_and_solar_data.xlsx
+++ b/data/accurate_my_wind_speed_and_solar_data.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHRISTOPHER\Documents\MATLAB\MicrogridSim\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A93F10-F4F4-48C8-A705-D8F1E71A2E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7583898-9D80-4E96-B52B-769E7CFD9667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13620" yWindow="2880" windowWidth="12510" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14310" yWindow="3570" windowWidth="12510" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -30,10 +28,10 @@
     <t>Time</t>
   </si>
   <si>
-    <t xml:space="preserve"> G</t>
+    <t>G</t>
   </si>
   <si>
-    <t xml:space="preserve"> W_S</t>
+    <t>W_S</t>
   </si>
 </sst>
 </file>
@@ -78,24 +76,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -404,8 +388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,10 +670,10 @@
       <c r="B20" s="2">
         <v>0.79175925925925927</v>
       </c>
-      <c r="C20" s="17">
-        <v>0</v>
-      </c>
-      <c r="D20" s="17">
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -700,10 +684,10 @@
       <c r="B21" s="2">
         <v>0.8334259259259259</v>
       </c>
-      <c r="C21" s="17">
-        <v>0</v>
-      </c>
-      <c r="D21" s="17">
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -714,10 +698,10 @@
       <c r="B22" s="2">
         <v>0.87509259259259264</v>
       </c>
-      <c r="C22" s="17">
-        <v>0</v>
-      </c>
-      <c r="D22" s="17">
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -1022,10 +1006,10 @@
       <c r="B44" s="2">
         <v>0.79197916666666668</v>
       </c>
-      <c r="C44" s="16">
-        <v>0</v>
-      </c>
-      <c r="D44" s="16">
+      <c r="C44" s="3">
+        <v>0</v>
+      </c>
+      <c r="D44" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -1036,10 +1020,10 @@
       <c r="B45" s="2">
         <v>0.83364583333333331</v>
       </c>
-      <c r="C45" s="16">
-        <v>0</v>
-      </c>
-      <c r="D45" s="16">
+      <c r="C45" s="3">
+        <v>0</v>
+      </c>
+      <c r="D45" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -1050,10 +1034,10 @@
       <c r="B46" s="2">
         <v>0.87531250000000005</v>
       </c>
-      <c r="C46" s="16">
-        <v>0</v>
-      </c>
-      <c r="D46" s="16">
+      <c r="C46" s="3">
+        <v>0</v>
+      </c>
+      <c r="D46" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -1064,10 +1048,10 @@
       <c r="B47" s="2">
         <v>0.91697916666666668</v>
       </c>
-      <c r="C47" s="16">
-        <v>0</v>
-      </c>
-      <c r="D47" s="16">
+      <c r="C47" s="3">
+        <v>0</v>
+      </c>
+      <c r="D47" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -1078,10 +1062,10 @@
       <c r="B48" s="2">
         <v>0.95864583333333331</v>
       </c>
-      <c r="C48" s="16">
-        <v>0</v>
-      </c>
-      <c r="D48" s="16">
+      <c r="C48" s="3">
+        <v>0</v>
+      </c>
+      <c r="D48" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -1092,10 +1076,10 @@
       <c r="B49" s="2">
         <v>3.1250000000000001E-4</v>
       </c>
-      <c r="C49" s="16">
-        <v>0</v>
-      </c>
-      <c r="D49" s="16">
+      <c r="C49" s="3">
+        <v>0</v>
+      </c>
+      <c r="D49" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -1358,10 +1342,10 @@
       <c r="B68" s="2">
         <v>0.7920949074074074</v>
       </c>
-      <c r="C68" s="15">
-        <v>0</v>
-      </c>
-      <c r="D68" s="15">
+      <c r="C68" s="3">
+        <v>0</v>
+      </c>
+      <c r="D68" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -1372,10 +1356,10 @@
       <c r="B69" s="2">
         <v>0.83376157407407403</v>
       </c>
-      <c r="C69" s="15">
-        <v>0</v>
-      </c>
-      <c r="D69" s="15">
+      <c r="C69" s="3">
+        <v>0</v>
+      </c>
+      <c r="D69" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -1386,10 +1370,10 @@
       <c r="B70" s="2">
         <v>0.87542824074074077</v>
       </c>
-      <c r="C70" s="15">
-        <v>0</v>
-      </c>
-      <c r="D70" s="15">
+      <c r="C70" s="3">
+        <v>0</v>
+      </c>
+      <c r="D70" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -1400,10 +1384,10 @@
       <c r="B71" s="2">
         <v>0.9170949074074074</v>
       </c>
-      <c r="C71" s="15">
-        <v>0</v>
-      </c>
-      <c r="D71" s="15">
+      <c r="C71" s="3">
+        <v>0</v>
+      </c>
+      <c r="D71" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -1414,10 +1398,10 @@
       <c r="B72" s="2">
         <v>0.95876157407407403</v>
       </c>
-      <c r="C72" s="15">
-        <v>0</v>
-      </c>
-      <c r="D72" s="15">
+      <c r="C72" s="3">
+        <v>0</v>
+      </c>
+      <c r="D72" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -1428,10 +1412,10 @@
       <c r="B73" s="2">
         <v>4.2824074074074075E-4</v>
       </c>
-      <c r="C73" s="15">
-        <v>0</v>
-      </c>
-      <c r="D73" s="15">
+      <c r="C73" s="3">
+        <v>0</v>
+      </c>
+      <c r="D73" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -1694,10 +1678,10 @@
       <c r="B92" s="2">
         <v>0.79182870370370373</v>
       </c>
-      <c r="C92" s="14">
-        <v>0</v>
-      </c>
-      <c r="D92" s="14">
+      <c r="C92" s="3">
+        <v>0</v>
+      </c>
+      <c r="D92" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -1708,10 +1692,10 @@
       <c r="B93" s="2">
         <v>0.83349537037037036</v>
       </c>
-      <c r="C93" s="14">
-        <v>0</v>
-      </c>
-      <c r="D93" s="14">
+      <c r="C93" s="3">
+        <v>0</v>
+      </c>
+      <c r="D93" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -1722,10 +1706,10 @@
       <c r="B94" s="2">
         <v>0.87516203703703699</v>
       </c>
-      <c r="C94" s="14">
-        <v>0</v>
-      </c>
-      <c r="D94" s="14">
+      <c r="C94" s="3">
+        <v>0</v>
+      </c>
+      <c r="D94" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -1736,10 +1720,10 @@
       <c r="B95" s="2">
         <v>0.91682870370370373</v>
       </c>
-      <c r="C95" s="14">
-        <v>0</v>
-      </c>
-      <c r="D95" s="14">
+      <c r="C95" s="3">
+        <v>0</v>
+      </c>
+      <c r="D95" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -1750,10 +1734,10 @@
       <c r="B96" s="2">
         <v>0.95849537037037036</v>
       </c>
-      <c r="C96" s="14">
-        <v>0</v>
-      </c>
-      <c r="D96" s="14">
+      <c r="C96" s="3">
+        <v>0</v>
+      </c>
+      <c r="D96" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -1764,10 +1748,10 @@
       <c r="B97" s="2">
         <v>1.6203703703703703E-4</v>
       </c>
-      <c r="C97" s="14">
-        <v>0</v>
-      </c>
-      <c r="D97" s="14">
+      <c r="C97" s="3">
+        <v>0</v>
+      </c>
+      <c r="D97" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -2030,10 +2014,10 @@
       <c r="B116" s="2">
         <v>0.79184027777777777</v>
       </c>
-      <c r="C116" s="13">
-        <v>0</v>
-      </c>
-      <c r="D116" s="13">
+      <c r="C116" s="3">
+        <v>0</v>
+      </c>
+      <c r="D116" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -2044,10 +2028,10 @@
       <c r="B117" s="2">
         <v>0.8335069444444444</v>
       </c>
-      <c r="C117" s="13">
-        <v>0</v>
-      </c>
-      <c r="D117" s="13">
+      <c r="C117" s="3">
+        <v>0</v>
+      </c>
+      <c r="D117" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -2058,10 +2042,10 @@
       <c r="B118" s="2">
         <v>0.87517361111111114</v>
       </c>
-      <c r="C118" s="13">
-        <v>0</v>
-      </c>
-      <c r="D118" s="13">
+      <c r="C118" s="3">
+        <v>0</v>
+      </c>
+      <c r="D118" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -2072,10 +2056,10 @@
       <c r="B119" s="2">
         <v>0.91684027777777777</v>
       </c>
-      <c r="C119" s="13">
-        <v>0</v>
-      </c>
-      <c r="D119" s="13">
+      <c r="C119" s="3">
+        <v>0</v>
+      </c>
+      <c r="D119" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -2086,10 +2070,10 @@
       <c r="B120" s="2">
         <v>0.9585069444444444</v>
       </c>
-      <c r="C120" s="13">
-        <v>0</v>
-      </c>
-      <c r="D120" s="13">
+      <c r="C120" s="3">
+        <v>0</v>
+      </c>
+      <c r="D120" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -2100,10 +2084,10 @@
       <c r="B121" s="2">
         <v>1.7361111111111112E-4</v>
       </c>
-      <c r="C121" s="13">
-        <v>0</v>
-      </c>
-      <c r="D121" s="13">
+      <c r="C121" s="3">
+        <v>0</v>
+      </c>
+      <c r="D121" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -2366,10 +2350,10 @@
       <c r="B140" s="2">
         <v>0.79167824074074078</v>
       </c>
-      <c r="C140" s="12">
-        <v>0</v>
-      </c>
-      <c r="D140" s="12">
+      <c r="C140" s="3">
+        <v>0</v>
+      </c>
+      <c r="D140" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -2380,10 +2364,10 @@
       <c r="B141" s="2">
         <v>0.83334490740740741</v>
       </c>
-      <c r="C141" s="12">
-        <v>0</v>
-      </c>
-      <c r="D141" s="12">
+      <c r="C141" s="3">
+        <v>0</v>
+      </c>
+      <c r="D141" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -2394,10 +2378,10 @@
       <c r="B142" s="2">
         <v>0.87501157407407404</v>
       </c>
-      <c r="C142" s="12">
-        <v>0</v>
-      </c>
-      <c r="D142" s="12">
+      <c r="C142" s="3">
+        <v>0</v>
+      </c>
+      <c r="D142" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -2408,10 +2392,10 @@
       <c r="B143" s="2">
         <v>0.91667824074074078</v>
       </c>
-      <c r="C143" s="12">
-        <v>0</v>
-      </c>
-      <c r="D143" s="12">
+      <c r="C143" s="3">
+        <v>0</v>
+      </c>
+      <c r="D143" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -2422,10 +2406,10 @@
       <c r="B144" s="2">
         <v>0.95834490740740741</v>
       </c>
-      <c r="C144" s="12">
-        <v>0</v>
-      </c>
-      <c r="D144" s="12">
+      <c r="C144" s="3">
+        <v>0</v>
+      </c>
+      <c r="D144" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -2436,10 +2420,10 @@
       <c r="B145" s="2">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="C145" s="12">
-        <v>0</v>
-      </c>
-      <c r="D145" s="12">
+      <c r="C145" s="3">
+        <v>0</v>
+      </c>
+      <c r="D145" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -2702,10 +2686,10 @@
       <c r="B164" s="2">
         <v>0.79200231481481487</v>
       </c>
-      <c r="C164" s="11">
-        <v>0</v>
-      </c>
-      <c r="D164" s="11">
+      <c r="C164" s="3">
+        <v>0</v>
+      </c>
+      <c r="D164" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -2716,10 +2700,10 @@
       <c r="B165" s="2">
         <v>0.8336689814814815</v>
       </c>
-      <c r="C165" s="11">
-        <v>0</v>
-      </c>
-      <c r="D165" s="11">
+      <c r="C165" s="3">
+        <v>0</v>
+      </c>
+      <c r="D165" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -2730,10 +2714,10 @@
       <c r="B166" s="2">
         <v>0.87533564814814813</v>
       </c>
-      <c r="C166" s="11">
-        <v>0</v>
-      </c>
-      <c r="D166" s="11">
+      <c r="C166" s="3">
+        <v>0</v>
+      </c>
+      <c r="D166" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -2744,10 +2728,10 @@
       <c r="B167" s="2">
         <v>0.91700231481481487</v>
       </c>
-      <c r="C167" s="11">
-        <v>0</v>
-      </c>
-      <c r="D167" s="11">
+      <c r="C167" s="3">
+        <v>0</v>
+      </c>
+      <c r="D167" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -2758,10 +2742,10 @@
       <c r="B168" s="2">
         <v>0.9586689814814815</v>
       </c>
-      <c r="C168" s="11">
-        <v>0</v>
-      </c>
-      <c r="D168" s="11">
+      <c r="C168" s="3">
+        <v>0</v>
+      </c>
+      <c r="D168" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -2772,10 +2756,10 @@
       <c r="B169" s="2">
         <v>3.3564814814814812E-4</v>
       </c>
-      <c r="C169" s="11">
-        <v>0</v>
-      </c>
-      <c r="D169" s="11">
+      <c r="C169" s="3">
+        <v>0</v>
+      </c>
+      <c r="D169" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -3038,10 +3022,10 @@
       <c r="B188" s="2">
         <v>0.79207175925925921</v>
       </c>
-      <c r="C188" s="10">
-        <v>0</v>
-      </c>
-      <c r="D188" s="10">
+      <c r="C188" s="3">
+        <v>0</v>
+      </c>
+      <c r="D188" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -3052,10 +3036,10 @@
       <c r="B189" s="2">
         <v>0.83373842592592595</v>
       </c>
-      <c r="C189" s="10">
-        <v>0</v>
-      </c>
-      <c r="D189" s="10">
+      <c r="C189" s="3">
+        <v>0</v>
+      </c>
+      <c r="D189" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -3066,10 +3050,10 @@
       <c r="B190" s="2">
         <v>0.87540509259259258</v>
       </c>
-      <c r="C190" s="10">
-        <v>0</v>
-      </c>
-      <c r="D190" s="10">
+      <c r="C190" s="3">
+        <v>0</v>
+      </c>
+      <c r="D190" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -3080,10 +3064,10 @@
       <c r="B191" s="2">
         <v>0.91707175925925921</v>
       </c>
-      <c r="C191" s="10">
-        <v>0</v>
-      </c>
-      <c r="D191" s="10">
+      <c r="C191" s="3">
+        <v>0</v>
+      </c>
+      <c r="D191" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -3094,10 +3078,10 @@
       <c r="B192" s="2">
         <v>0.95873842592592595</v>
       </c>
-      <c r="C192" s="10">
-        <v>0</v>
-      </c>
-      <c r="D192" s="10">
+      <c r="C192" s="3">
+        <v>0</v>
+      </c>
+      <c r="D192" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -3108,10 +3092,10 @@
       <c r="B193" s="2">
         <v>4.0509259259259258E-4</v>
       </c>
-      <c r="C193" s="10">
-        <v>0</v>
-      </c>
-      <c r="D193" s="10">
+      <c r="C193" s="3">
+        <v>0</v>
+      </c>
+      <c r="D193" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -3374,10 +3358,10 @@
       <c r="B212" s="2">
         <v>0.79211805555555559</v>
       </c>
-      <c r="C212" s="9">
-        <v>0</v>
-      </c>
-      <c r="D212" s="9">
+      <c r="C212" s="3">
+        <v>0</v>
+      </c>
+      <c r="D212" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -3388,10 +3372,10 @@
       <c r="B213" s="2">
         <v>0.83378472222222222</v>
       </c>
-      <c r="C213" s="9">
-        <v>0</v>
-      </c>
-      <c r="D213" s="9">
+      <c r="C213" s="3">
+        <v>0</v>
+      </c>
+      <c r="D213" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -3402,10 +3386,10 @@
       <c r="B214" s="2">
         <v>0.87545138888888885</v>
       </c>
-      <c r="C214" s="9">
-        <v>0</v>
-      </c>
-      <c r="D214" s="9">
+      <c r="C214" s="3">
+        <v>0</v>
+      </c>
+      <c r="D214" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -3416,10 +3400,10 @@
       <c r="B215" s="2">
         <v>0.91711805555555559</v>
       </c>
-      <c r="C215" s="9">
-        <v>0</v>
-      </c>
-      <c r="D215" s="9">
+      <c r="C215" s="3">
+        <v>0</v>
+      </c>
+      <c r="D215" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -3430,10 +3414,10 @@
       <c r="B216" s="2">
         <v>0.95878472222222222</v>
       </c>
-      <c r="C216" s="9">
-        <v>0</v>
-      </c>
-      <c r="D216" s="9">
+      <c r="C216" s="3">
+        <v>0</v>
+      </c>
+      <c r="D216" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -3444,10 +3428,10 @@
       <c r="B217" s="2">
         <v>4.5138888888888887E-4</v>
       </c>
-      <c r="C217" s="9">
-        <v>0</v>
-      </c>
-      <c r="D217" s="9">
+      <c r="C217" s="3">
+        <v>0</v>
+      </c>
+      <c r="D217" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -3710,10 +3694,10 @@
       <c r="B236" s="2">
         <v>0.79232638888888884</v>
       </c>
-      <c r="C236" s="8">
-        <v>0</v>
-      </c>
-      <c r="D236" s="8">
+      <c r="C236" s="3">
+        <v>0</v>
+      </c>
+      <c r="D236" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -3724,10 +3708,10 @@
       <c r="B237" s="2">
         <v>0.83399305555555558</v>
       </c>
-      <c r="C237" s="8">
-        <v>0</v>
-      </c>
-      <c r="D237" s="8">
+      <c r="C237" s="3">
+        <v>0</v>
+      </c>
+      <c r="D237" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -3738,10 +3722,10 @@
       <c r="B238" s="2">
         <v>0.87565972222222221</v>
       </c>
-      <c r="C238" s="8">
-        <v>0</v>
-      </c>
-      <c r="D238" s="8">
+      <c r="C238" s="3">
+        <v>0</v>
+      </c>
+      <c r="D238" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -3752,10 +3736,10 @@
       <c r="B239" s="2">
         <v>0.91732638888888884</v>
       </c>
-      <c r="C239" s="8">
-        <v>0</v>
-      </c>
-      <c r="D239" s="8">
+      <c r="C239" s="3">
+        <v>0</v>
+      </c>
+      <c r="D239" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -3766,10 +3750,10 @@
       <c r="B240" s="2">
         <v>0.95899305555555558</v>
       </c>
-      <c r="C240" s="8">
-        <v>0</v>
-      </c>
-      <c r="D240" s="8">
+      <c r="C240" s="3">
+        <v>0</v>
+      </c>
+      <c r="D240" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -3780,10 +3764,10 @@
       <c r="B241" s="2">
         <v>6.5972222222222224E-4</v>
       </c>
-      <c r="C241" s="8">
-        <v>0</v>
-      </c>
-      <c r="D241" s="8">
+      <c r="C241" s="3">
+        <v>0</v>
+      </c>
+      <c r="D241" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -4046,10 +4030,10 @@
       <c r="B260" s="2">
         <v>0.7922569444444445</v>
       </c>
-      <c r="C260" s="7">
-        <v>0</v>
-      </c>
-      <c r="D260" s="7">
+      <c r="C260" s="3">
+        <v>0</v>
+      </c>
+      <c r="D260" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -4060,10 +4044,10 @@
       <c r="B261" s="2">
         <v>0.83392361111111113</v>
       </c>
-      <c r="C261" s="7">
-        <v>0</v>
-      </c>
-      <c r="D261" s="7">
+      <c r="C261" s="3">
+        <v>0</v>
+      </c>
+      <c r="D261" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -4074,10 +4058,10 @@
       <c r="B262" s="2">
         <v>0.87559027777777776</v>
       </c>
-      <c r="C262" s="7">
-        <v>0</v>
-      </c>
-      <c r="D262" s="7">
+      <c r="C262" s="3">
+        <v>0</v>
+      </c>
+      <c r="D262" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -4088,10 +4072,10 @@
       <c r="B263" s="2">
         <v>0.9172569444444445</v>
       </c>
-      <c r="C263" s="7">
-        <v>0</v>
-      </c>
-      <c r="D263" s="7">
+      <c r="C263" s="3">
+        <v>0</v>
+      </c>
+      <c r="D263" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -4102,10 +4086,10 @@
       <c r="B264" s="2">
         <v>0.95892361111111113</v>
       </c>
-      <c r="C264" s="7">
-        <v>0</v>
-      </c>
-      <c r="D264" s="7">
+      <c r="C264" s="3">
+        <v>0</v>
+      </c>
+      <c r="D264" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -4116,10 +4100,10 @@
       <c r="B265" s="2">
         <v>5.9027777777777778E-4</v>
       </c>
-      <c r="C265" s="7">
-        <v>0</v>
-      </c>
-      <c r="D265" s="7">
+      <c r="C265" s="3">
+        <v>0</v>
+      </c>
+      <c r="D265" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -4382,10 +4366,10 @@
       <c r="B284" s="2">
         <v>0.79204861111111113</v>
       </c>
-      <c r="C284" s="6">
-        <v>0</v>
-      </c>
-      <c r="D284" s="6">
+      <c r="C284" s="3">
+        <v>0</v>
+      </c>
+      <c r="D284" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -4396,10 +4380,10 @@
       <c r="B285" s="2">
         <v>0.83371527777777776</v>
       </c>
-      <c r="C285" s="6">
-        <v>0</v>
-      </c>
-      <c r="D285" s="6">
+      <c r="C285" s="3">
+        <v>0</v>
+      </c>
+      <c r="D285" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -4410,10 +4394,10 @@
       <c r="B286" s="2">
         <v>0.87538194444444439</v>
       </c>
-      <c r="C286" s="6">
-        <v>0</v>
-      </c>
-      <c r="D286" s="6">
+      <c r="C286" s="3">
+        <v>0</v>
+      </c>
+      <c r="D286" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -4424,10 +4408,10 @@
       <c r="B287" s="2">
         <v>0.91704861111111113</v>
       </c>
-      <c r="C287" s="6">
-        <v>0</v>
-      </c>
-      <c r="D287" s="6">
+      <c r="C287" s="3">
+        <v>0</v>
+      </c>
+      <c r="D287" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -4438,10 +4422,10 @@
       <c r="B288" s="2">
         <v>0.95871527777777776</v>
       </c>
-      <c r="C288" s="6">
-        <v>0</v>
-      </c>
-      <c r="D288" s="6">
+      <c r="C288" s="3">
+        <v>0</v>
+      </c>
+      <c r="D288" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -4452,10 +4436,10 @@
       <c r="B289" s="2">
         <v>3.8194444444444446E-4</v>
       </c>
-      <c r="C289" s="6">
-        <v>0</v>
-      </c>
-      <c r="D289" s="6">
+      <c r="C289" s="3">
+        <v>0</v>
+      </c>
+      <c r="D289" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -4718,10 +4702,10 @@
       <c r="B308" s="2">
         <v>0.79233796296296299</v>
       </c>
-      <c r="C308" s="4">
-        <v>0</v>
-      </c>
-      <c r="D308" s="4">
+      <c r="C308" s="3">
+        <v>0</v>
+      </c>
+      <c r="D308" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -4732,10 +4716,10 @@
       <c r="B309" s="2">
         <v>0.83400462962962962</v>
       </c>
-      <c r="C309" s="4">
-        <v>0</v>
-      </c>
-      <c r="D309" s="4">
+      <c r="C309" s="3">
+        <v>0</v>
+      </c>
+      <c r="D309" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -4746,10 +4730,10 @@
       <c r="B310" s="2">
         <v>0.87567129629629625</v>
       </c>
-      <c r="C310" s="4">
-        <v>0</v>
-      </c>
-      <c r="D310" s="4">
+      <c r="C310" s="3">
+        <v>0</v>
+      </c>
+      <c r="D310" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -4760,10 +4744,10 @@
       <c r="B311" s="2">
         <v>0.91733796296296299</v>
       </c>
-      <c r="C311" s="4">
-        <v>0</v>
-      </c>
-      <c r="D311" s="4">
+      <c r="C311" s="3">
+        <v>0</v>
+      </c>
+      <c r="D311" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -4788,10 +4772,10 @@
       <c r="B313" s="2">
         <v>6.7129629629629625E-4</v>
       </c>
-      <c r="C313" s="5">
-        <v>0</v>
-      </c>
-      <c r="D313" s="5">
+      <c r="C313" s="3">
+        <v>0</v>
+      </c>
+      <c r="D313" s="3">
         <v>4.1455859374999999</v>
       </c>
     </row>
@@ -5135,28 +5119,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>